--- a/output/EAM2020_table.xlsx
+++ b/output/EAM2020_table.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Work/Drive/PhD/projects/imputeHD-comp/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AD39EB-74D5-BC49-B188-527D80E28C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17892FDD-5BF4-1249-8983-AE6B4F1FA02D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{067D48FD-5114-8F4A-AE5E-550E2BBECD93}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{067D48FD-5114-8F4A-AE5E-550E2BBECD93}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2020-07-15" sheetId="1" r:id="rId1"/>
+    <sheet name="2020-08-03" sheetId="2" r:id="rId2"/>
+    <sheet name="2020-08-03 (reps = 750)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="24">
   <si>
     <t>CR</t>
   </si>
@@ -508,9 +510,6 @@
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -525,9 +524,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -580,6 +576,19 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -587,15 +596,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -607,7 +607,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -924,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4234CF2E-4A71-A34E-98F5-86A9111388FF}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="186" zoomScaleNormal="186" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -936,28 +938,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
     </row>
     <row r="2" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="31" t="s">
         <v>12</v>
       </c>
@@ -986,1959 +988,1959 @@
         <v>18</v>
       </c>
       <c r="P2" s="33"/>
-      <c r="Q2" s="34"/>
+      <c r="Q2" s="26"/>
     </row>
     <row r="3" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="28" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="28" t="s">
+      <c r="F3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="28" t="s">
+      <c r="H3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="28" t="s">
+      <c r="J3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="28" t="s">
+      <c r="L3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="28" t="s">
+      <c r="N3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="25" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="18">
+      <c r="A4" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16">
         <v>11</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="17">
         <v>19.399999999999999</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="17">
         <v>8</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="17">
         <v>53.2</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="17">
         <v>9</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="17">
         <v>81.400000000000006</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="17">
         <v>5</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="17">
         <v>89.2</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="17">
         <v>17</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="17">
         <v>74.2</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="17">
         <v>23</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="17">
         <v>86.4</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="17">
         <v>17</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4" s="18">
         <v>90.1</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
     </row>
     <row r="6" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
         <v>92.8</v>
       </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
         <v>92.8</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>9</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <v>74.400000000000006</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="8">
         <v>10</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="8">
         <v>72.8</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="8">
         <v>11</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="8">
         <v>78.5</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="8">
         <v>11</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="8">
         <v>88.2</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="8">
         <v>13</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="9">
         <v>88.4</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="D7" s="13">
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
         <v>96</v>
       </c>
-      <c r="E7" s="13">
-        <v>0</v>
-      </c>
-      <c r="F7" s="13">
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
         <v>96.2</v>
       </c>
-      <c r="G7" s="13">
-        <v>2</v>
-      </c>
-      <c r="H7" s="13">
+      <c r="G7" s="11">
+        <v>2</v>
+      </c>
+      <c r="H7" s="11">
         <v>92.8</v>
       </c>
-      <c r="I7" s="13">
-        <v>2</v>
-      </c>
-      <c r="J7" s="13">
+      <c r="I7" s="11">
+        <v>2</v>
+      </c>
+      <c r="J7" s="11">
         <v>92.6</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="11">
         <v>3</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="11">
         <v>91.4</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="11">
         <v>4</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="11">
         <v>95</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="11">
         <v>6</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="12">
         <v>95.8</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="12">
-        <v>0</v>
-      </c>
-      <c r="D8" s="13">
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
         <v>96.6</v>
       </c>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
         <v>97.4</v>
       </c>
-      <c r="G8" s="13">
-        <v>0</v>
-      </c>
-      <c r="H8" s="13">
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
         <v>94</v>
       </c>
-      <c r="I8" s="13">
-        <v>0</v>
-      </c>
-      <c r="J8" s="13">
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
         <v>93.4</v>
       </c>
-      <c r="K8" s="13">
-        <v>1</v>
-      </c>
-      <c r="L8" s="13">
+      <c r="K8" s="11">
+        <v>1</v>
+      </c>
+      <c r="L8" s="11">
         <v>93.2</v>
       </c>
-      <c r="M8" s="13">
-        <v>1</v>
-      </c>
-      <c r="N8" s="13">
+      <c r="M8" s="11">
+        <v>1</v>
+      </c>
+      <c r="N8" s="11">
         <v>94.6</v>
       </c>
-      <c r="O8" s="13">
-        <v>1</v>
-      </c>
-      <c r="P8" s="14">
+      <c r="O8" s="11">
+        <v>1</v>
+      </c>
+      <c r="P8" s="12">
         <v>95.8</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
         <v>96.6</v>
       </c>
-      <c r="E9" s="13">
-        <v>0</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
         <v>97.6</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="11">
         <v>4</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="11">
         <v>97.4</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="11">
         <v>6</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="11">
         <v>96.2</v>
       </c>
-      <c r="K9" s="13">
-        <v>0</v>
-      </c>
-      <c r="L9" s="13">
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
         <v>95.2</v>
       </c>
-      <c r="M9" s="13">
-        <v>0</v>
-      </c>
-      <c r="N9" s="13">
+      <c r="M9" s="11">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11">
         <v>96.4</v>
       </c>
-      <c r="O9" s="13">
-        <v>1</v>
-      </c>
-      <c r="P9" s="14">
+      <c r="O9" s="11">
+        <v>1</v>
+      </c>
+      <c r="P9" s="12">
         <v>97.8</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="12">
-        <v>0</v>
-      </c>
-      <c r="D10" s="13">
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
         <v>95.8</v>
       </c>
-      <c r="E10" s="13">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13">
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
         <v>96</v>
       </c>
-      <c r="G10" s="13">
-        <v>1</v>
-      </c>
-      <c r="H10" s="13">
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11">
         <v>94.2</v>
       </c>
-      <c r="I10" s="13">
-        <v>0</v>
-      </c>
-      <c r="J10" s="13">
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
         <v>93.6</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="11">
         <v>3</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="11">
         <v>91.8</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="11">
         <v>7</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="11">
         <v>93.2</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="11">
         <v>9</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="12">
         <v>94.6</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="12">
-        <v>0</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
         <v>96.4</v>
       </c>
-      <c r="E11" s="13">
-        <v>0</v>
-      </c>
-      <c r="F11" s="13">
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
         <v>97.4</v>
       </c>
-      <c r="G11" s="13">
-        <v>1</v>
-      </c>
-      <c r="H11" s="13">
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11">
         <v>95.4</v>
       </c>
-      <c r="I11" s="13">
-        <v>2</v>
-      </c>
-      <c r="J11" s="13">
+      <c r="I11" s="11">
+        <v>2</v>
+      </c>
+      <c r="J11" s="11">
         <v>94.4</v>
       </c>
-      <c r="K11" s="13">
-        <v>0</v>
-      </c>
-      <c r="L11" s="13">
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
         <v>94.4</v>
       </c>
-      <c r="M11" s="13">
-        <v>1</v>
-      </c>
-      <c r="N11" s="13">
+      <c r="M11" s="11">
+        <v>1</v>
+      </c>
+      <c r="N11" s="11">
         <v>94.6</v>
       </c>
-      <c r="O11" s="13">
-        <v>0</v>
-      </c>
-      <c r="P11" s="14">
+      <c r="O11" s="11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="12">
         <v>96.8</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="13">
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11">
         <v>94.8</v>
       </c>
-      <c r="E12" s="13">
-        <v>1</v>
-      </c>
-      <c r="F12" s="13">
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11">
         <v>95.6</v>
       </c>
-      <c r="G12" s="13">
-        <v>2</v>
-      </c>
-      <c r="H12" s="13">
+      <c r="G12" s="11">
+        <v>2</v>
+      </c>
+      <c r="H12" s="11">
         <v>91.6</v>
       </c>
-      <c r="I12" s="13">
-        <v>1</v>
-      </c>
-      <c r="J12" s="13">
+      <c r="I12" s="11">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11">
         <v>93.2</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="11">
         <v>6</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="11">
         <v>88.8</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="11">
         <v>9</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="11">
         <v>93.8</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="11">
         <v>9</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="12">
         <v>94.6</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="12">
-        <v>1</v>
-      </c>
-      <c r="D13" s="13">
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
         <v>95.4</v>
       </c>
-      <c r="E13" s="13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11">
         <v>95.8</v>
       </c>
-      <c r="G13" s="13">
-        <v>2</v>
-      </c>
-      <c r="H13" s="13">
+      <c r="G13" s="11">
+        <v>2</v>
+      </c>
+      <c r="H13" s="11">
         <v>92.2</v>
       </c>
-      <c r="I13" s="13">
-        <v>1</v>
-      </c>
-      <c r="J13" s="13">
+      <c r="I13" s="11">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11">
         <v>92.8</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="11">
         <v>10</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="11">
         <v>85.2</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="11">
         <v>13</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="11">
         <v>93</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="11">
         <v>14</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="12">
         <v>93.4</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="22">
-        <v>0</v>
-      </c>
-      <c r="D14" s="23">
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
         <v>95.6</v>
       </c>
-      <c r="E14" s="23">
-        <v>0</v>
-      </c>
-      <c r="F14" s="23">
+      <c r="E14" s="21">
+        <v>0</v>
+      </c>
+      <c r="F14" s="21">
         <v>97.8</v>
       </c>
-      <c r="G14" s="23">
-        <v>1</v>
-      </c>
-      <c r="H14" s="23">
+      <c r="G14" s="21">
+        <v>1</v>
+      </c>
+      <c r="H14" s="21">
         <v>95.8</v>
       </c>
-      <c r="I14" s="23">
-        <v>1</v>
-      </c>
-      <c r="J14" s="23">
+      <c r="I14" s="21">
+        <v>1</v>
+      </c>
+      <c r="J14" s="21">
         <v>94.4</v>
       </c>
-      <c r="K14" s="23">
-        <v>0</v>
-      </c>
-      <c r="L14" s="23">
+      <c r="K14" s="21">
+        <v>0</v>
+      </c>
+      <c r="L14" s="21">
         <v>93.4</v>
       </c>
-      <c r="M14" s="23">
-        <v>1</v>
-      </c>
-      <c r="N14" s="23">
+      <c r="M14" s="21">
+        <v>1</v>
+      </c>
+      <c r="N14" s="21">
         <v>94.4</v>
       </c>
-      <c r="O14" s="23">
-        <v>1</v>
-      </c>
-      <c r="P14" s="24">
+      <c r="O14" s="21">
+        <v>1</v>
+      </c>
+      <c r="P14" s="22">
         <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
     </row>
     <row r="16" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="9">
-        <v>2</v>
-      </c>
-      <c r="D16" s="10">
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8">
         <v>89.2</v>
       </c>
-      <c r="E16" s="10">
-        <v>1</v>
-      </c>
-      <c r="F16" s="10">
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8">
         <v>87.5</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="8">
         <v>11</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="8">
         <v>68.8</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="8">
         <v>11</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="8">
         <v>68.599999999999994</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="8">
         <v>19</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="8">
         <v>61.2</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="8">
         <v>21</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="8">
         <v>83.1</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="8">
         <v>21</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P16" s="9">
         <v>78.400000000000006</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="12">
-        <v>1</v>
-      </c>
-      <c r="D17" s="13">
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11">
         <v>95</v>
       </c>
-      <c r="E17" s="13">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13">
+      <c r="E17" s="11">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11">
         <v>92</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="11">
         <v>5</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="11">
         <v>89.2</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="11">
         <v>6</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="11">
         <v>86.6</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="11">
         <v>6</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="11">
         <v>89.6</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="11">
         <v>9</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="11">
         <v>93.4</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="11">
         <v>12</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P17" s="12">
         <v>90.8</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="12">
-        <v>0</v>
-      </c>
-      <c r="D18" s="13">
+      <c r="C18" s="10">
+        <v>0</v>
+      </c>
+      <c r="D18" s="11">
         <v>95.6</v>
       </c>
-      <c r="E18" s="13">
-        <v>0</v>
-      </c>
-      <c r="F18" s="13">
+      <c r="E18" s="11">
+        <v>0</v>
+      </c>
+      <c r="F18" s="11">
         <v>93.2</v>
       </c>
-      <c r="G18" s="13">
-        <v>1</v>
-      </c>
-      <c r="H18" s="13">
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11">
         <v>93.6</v>
       </c>
-      <c r="I18" s="13">
-        <v>1</v>
-      </c>
-      <c r="J18" s="13">
+      <c r="I18" s="11">
+        <v>1</v>
+      </c>
+      <c r="J18" s="11">
         <v>93.8</v>
       </c>
-      <c r="K18" s="13">
-        <v>2</v>
-      </c>
-      <c r="L18" s="13">
+      <c r="K18" s="11">
+        <v>2</v>
+      </c>
+      <c r="L18" s="11">
         <v>93</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="11">
         <v>4</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="11">
         <v>96.4</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="11">
         <v>6</v>
       </c>
-      <c r="P18" s="14">
+      <c r="P18" s="12">
         <v>93.8</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="12">
-        <v>1</v>
-      </c>
-      <c r="D19" s="13">
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11">
         <v>95.6</v>
       </c>
-      <c r="E19" s="13">
-        <v>1</v>
-      </c>
-      <c r="F19" s="13">
+      <c r="E19" s="11">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11">
         <v>93.4</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="11">
         <v>33</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="11">
         <v>91.8</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="11">
         <v>61</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="11">
         <v>94.2</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="11">
         <v>10</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="11">
         <v>87.4</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="11">
         <v>9</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="11">
         <v>94.6</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="11">
         <v>11</v>
       </c>
-      <c r="P19" s="14">
+      <c r="P19" s="12">
         <v>93.2</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="12">
-        <v>1</v>
-      </c>
-      <c r="D20" s="13">
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" s="11">
         <v>96</v>
       </c>
-      <c r="E20" s="13">
-        <v>1</v>
-      </c>
-      <c r="F20" s="13">
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20" s="11">
         <v>93.6</v>
       </c>
-      <c r="G20" s="13">
-        <v>1</v>
-      </c>
-      <c r="H20" s="13">
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11">
         <v>95</v>
       </c>
-      <c r="I20" s="13">
-        <v>1</v>
-      </c>
-      <c r="J20" s="13">
+      <c r="I20" s="11">
+        <v>1</v>
+      </c>
+      <c r="J20" s="11">
         <v>95.6</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="11">
         <v>5</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="11">
         <v>91.2</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="11">
         <v>11</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="11">
         <v>94.4</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="11">
         <v>15</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P20" s="12">
         <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="29"/>
+      <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="12">
-        <v>0</v>
-      </c>
-      <c r="D21" s="13">
+      <c r="C21" s="10">
+        <v>0</v>
+      </c>
+      <c r="D21" s="11">
         <v>96.4</v>
       </c>
-      <c r="E21" s="13">
-        <v>0</v>
-      </c>
-      <c r="F21" s="13">
+      <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
         <v>94.8</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="11">
         <v>5</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="11">
         <v>97</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="11">
         <v>7</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="11">
         <v>97</v>
       </c>
-      <c r="K21" s="13">
-        <v>1</v>
-      </c>
-      <c r="L21" s="13">
+      <c r="K21" s="11">
+        <v>1</v>
+      </c>
+      <c r="L21" s="11">
         <v>95.4</v>
       </c>
-      <c r="M21" s="13">
-        <v>1</v>
-      </c>
-      <c r="N21" s="13">
+      <c r="M21" s="11">
+        <v>1</v>
+      </c>
+      <c r="N21" s="11">
         <v>96.6</v>
       </c>
-      <c r="O21" s="13">
-        <v>2</v>
-      </c>
-      <c r="P21" s="14">
+      <c r="O21" s="11">
+        <v>2</v>
+      </c>
+      <c r="P21" s="12">
         <v>95.6</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="12">
-        <v>1</v>
-      </c>
-      <c r="D22" s="13">
+      <c r="C22" s="10">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11">
         <v>95.4</v>
       </c>
-      <c r="E22" s="13">
-        <v>1</v>
-      </c>
-      <c r="F22" s="13">
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22" s="11">
         <v>94</v>
       </c>
-      <c r="G22" s="13">
-        <v>2</v>
-      </c>
-      <c r="H22" s="13">
+      <c r="G22" s="11">
+        <v>2</v>
+      </c>
+      <c r="H22" s="11">
         <v>92.8</v>
       </c>
-      <c r="I22" s="13">
-        <v>1</v>
-      </c>
-      <c r="J22" s="13">
+      <c r="I22" s="11">
+        <v>1</v>
+      </c>
+      <c r="J22" s="11">
         <v>93.2</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="11">
         <v>8</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="11">
         <v>88.2</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="11">
         <v>13</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="11">
         <v>92.6</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="11">
         <v>15</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P22" s="12">
         <v>87.2</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="12">
-        <v>1</v>
-      </c>
-      <c r="D23" s="13">
+      <c r="C23" s="10">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11">
         <v>95.2</v>
       </c>
-      <c r="E23" s="13">
-        <v>1</v>
-      </c>
-      <c r="F23" s="13">
+      <c r="E23" s="11">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11">
         <v>92</v>
       </c>
-      <c r="G23" s="13">
-        <v>2</v>
-      </c>
-      <c r="H23" s="13">
+      <c r="G23" s="11">
+        <v>2</v>
+      </c>
+      <c r="H23" s="11">
         <v>92.6</v>
       </c>
-      <c r="I23" s="13">
-        <v>2</v>
-      </c>
-      <c r="J23" s="13">
+      <c r="I23" s="11">
+        <v>2</v>
+      </c>
+      <c r="J23" s="11">
         <v>94.2</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="11">
         <v>13</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="11">
         <v>82.8</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="11">
         <v>18</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="11">
         <v>92.2</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O23" s="11">
         <v>20</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P23" s="12">
         <v>89.9</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="15">
-        <v>0</v>
-      </c>
-      <c r="D24" s="16">
+      <c r="C24" s="13">
+        <v>0</v>
+      </c>
+      <c r="D24" s="14">
         <v>96.2</v>
       </c>
-      <c r="E24" s="16">
-        <v>0</v>
-      </c>
-      <c r="F24" s="16">
+      <c r="E24" s="14">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14">
         <v>94.2</v>
       </c>
-      <c r="G24" s="16">
-        <v>1</v>
-      </c>
-      <c r="H24" s="16">
+      <c r="G24" s="14">
+        <v>1</v>
+      </c>
+      <c r="H24" s="14">
         <v>95.4</v>
       </c>
-      <c r="I24" s="16">
-        <v>1</v>
-      </c>
-      <c r="J24" s="16">
+      <c r="I24" s="14">
+        <v>1</v>
+      </c>
+      <c r="J24" s="14">
         <v>96.4</v>
       </c>
-      <c r="K24" s="16">
-        <v>0</v>
-      </c>
-      <c r="L24" s="16">
+      <c r="K24" s="14">
+        <v>0</v>
+      </c>
+      <c r="L24" s="14">
         <v>94.6</v>
       </c>
-      <c r="M24" s="16">
-        <v>0</v>
-      </c>
-      <c r="N24" s="16">
+      <c r="M24" s="14">
+        <v>0</v>
+      </c>
+      <c r="N24" s="14">
         <v>97.2</v>
       </c>
-      <c r="O24" s="16">
-        <v>1</v>
-      </c>
-      <c r="P24" s="17">
+      <c r="O24" s="14">
+        <v>1</v>
+      </c>
+      <c r="P24" s="15">
         <v>93.6</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="18">
+      <c r="B25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="16">
         <v>26</v>
       </c>
-      <c r="D25" s="19">
-        <v>2</v>
-      </c>
-      <c r="E25" s="19">
+      <c r="D25" s="17">
+        <v>2</v>
+      </c>
+      <c r="E25" s="17">
         <v>17</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="17">
         <v>25.2</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="17">
         <v>17</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="17">
         <v>74.8</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="17">
         <v>7</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="17">
         <v>87.2</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K25" s="17">
         <v>29</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="17">
         <v>66.400000000000006</v>
       </c>
-      <c r="M25" s="19">
+      <c r="M25" s="17">
         <v>35</v>
       </c>
-      <c r="N25" s="19">
+      <c r="N25" s="17">
         <v>83.8</v>
       </c>
-      <c r="O25" s="19">
+      <c r="O25" s="17">
         <v>29</v>
       </c>
-      <c r="P25" s="20">
+      <c r="P25" s="18">
         <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26"/>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
     </row>
     <row r="27" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26"/>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="7">
         <v>3</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="8">
         <v>77.400000000000006</v>
       </c>
-      <c r="E27" s="10">
-        <v>2</v>
-      </c>
-      <c r="F27" s="10">
+      <c r="E27" s="8">
+        <v>2</v>
+      </c>
+      <c r="F27" s="8">
         <v>79.5</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="8">
         <v>26</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="8">
         <v>15.4</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="8">
         <v>28</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="8">
         <v>11.6</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="8">
         <v>26</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="8">
         <v>34.6</v>
       </c>
-      <c r="M27" s="10">
+      <c r="M27" s="8">
         <v>26</v>
       </c>
-      <c r="N27" s="10">
+      <c r="N27" s="8">
         <v>61</v>
       </c>
-      <c r="O27" s="10">
+      <c r="O27" s="8">
         <v>30</v>
       </c>
-      <c r="P27" s="11">
+      <c r="P27" s="9">
         <v>56.8</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="29"/>
+      <c r="B28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="12">
-        <v>1</v>
-      </c>
-      <c r="D28" s="13">
+      <c r="C28" s="10">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11">
         <v>92.2</v>
       </c>
-      <c r="E28" s="13">
-        <v>1</v>
-      </c>
-      <c r="F28" s="13">
+      <c r="E28" s="11">
+        <v>1</v>
+      </c>
+      <c r="F28" s="11">
         <v>93.2</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="11">
         <v>6</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="11">
         <v>87</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="11">
         <v>6</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="11">
         <v>89.4</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="11">
         <v>8</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="11">
         <v>89</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="11">
         <v>11</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N28" s="11">
         <v>94</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O28" s="11">
         <v>14</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P28" s="12">
         <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="26"/>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="12">
-        <v>0</v>
-      </c>
-      <c r="D29" s="13">
+      <c r="C29" s="10">
+        <v>0</v>
+      </c>
+      <c r="D29" s="11">
         <v>94</v>
       </c>
-      <c r="E29" s="13">
-        <v>0</v>
-      </c>
-      <c r="F29" s="13">
+      <c r="E29" s="11">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11">
         <v>94</v>
       </c>
-      <c r="G29" s="13">
-        <v>0</v>
-      </c>
-      <c r="H29" s="13">
+      <c r="G29" s="11">
+        <v>0</v>
+      </c>
+      <c r="H29" s="11">
         <v>92.8</v>
       </c>
-      <c r="I29" s="13">
-        <v>0</v>
-      </c>
-      <c r="J29" s="13">
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
         <v>94.6</v>
       </c>
-      <c r="K29" s="13">
-        <v>1</v>
-      </c>
-      <c r="L29" s="13">
+      <c r="K29" s="11">
+        <v>1</v>
+      </c>
+      <c r="L29" s="11">
         <v>92.6</v>
       </c>
-      <c r="M29" s="13">
-        <v>2</v>
-      </c>
-      <c r="N29" s="13">
+      <c r="M29" s="11">
+        <v>2</v>
+      </c>
+      <c r="N29" s="11">
         <v>95.2</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O29" s="11">
         <v>3</v>
       </c>
-      <c r="P29" s="14">
+      <c r="P29" s="12">
         <v>91.4</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="26"/>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="29"/>
+      <c r="B30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="12">
-        <v>0</v>
-      </c>
-      <c r="D30" s="13">
+      <c r="C30" s="10">
+        <v>0</v>
+      </c>
+      <c r="D30" s="11">
         <v>95.8</v>
       </c>
-      <c r="E30" s="13">
-        <v>0</v>
-      </c>
-      <c r="F30" s="13">
+      <c r="E30" s="11">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11">
         <v>98.2</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="11">
         <v>17</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="11">
         <v>90</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="11">
         <v>27</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="11">
         <v>84.2</v>
       </c>
-      <c r="K30" s="13">
-        <v>0</v>
-      </c>
-      <c r="L30" s="13">
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
         <v>95.8</v>
       </c>
-      <c r="M30" s="13">
-        <v>0</v>
-      </c>
-      <c r="N30" s="13">
+      <c r="M30" s="11">
+        <v>0</v>
+      </c>
+      <c r="N30" s="11">
         <v>97.2</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O30" s="11">
         <v>3</v>
       </c>
-      <c r="P30" s="14">
+      <c r="P30" s="12">
         <v>96.8</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="26"/>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="29"/>
+      <c r="B31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="12">
-        <v>1</v>
-      </c>
-      <c r="D31" s="13">
+      <c r="C31" s="10">
+        <v>1</v>
+      </c>
+      <c r="D31" s="11">
         <v>92.4</v>
       </c>
-      <c r="E31" s="13">
-        <v>2</v>
-      </c>
-      <c r="F31" s="13">
+      <c r="E31" s="11">
+        <v>2</v>
+      </c>
+      <c r="F31" s="11">
         <v>90.6</v>
       </c>
-      <c r="G31" s="13">
-        <v>2</v>
-      </c>
-      <c r="H31" s="13">
+      <c r="G31" s="11">
+        <v>2</v>
+      </c>
+      <c r="H31" s="11">
         <v>94.8</v>
       </c>
-      <c r="I31" s="13">
-        <v>1</v>
-      </c>
-      <c r="J31" s="13">
+      <c r="I31" s="11">
+        <v>1</v>
+      </c>
+      <c r="J31" s="11">
         <v>94</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="11">
         <v>11</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="11">
         <v>84.8</v>
       </c>
-      <c r="M31" s="13">
+      <c r="M31" s="11">
         <v>22</v>
       </c>
-      <c r="N31" s="13">
+      <c r="N31" s="11">
         <v>89.4</v>
       </c>
-      <c r="O31" s="13">
+      <c r="O31" s="11">
         <v>27</v>
       </c>
-      <c r="P31" s="14">
+      <c r="P31" s="12">
         <v>83.2</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="26"/>
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="12">
-        <v>0</v>
-      </c>
-      <c r="D32" s="13">
+      <c r="C32" s="10">
+        <v>0</v>
+      </c>
+      <c r="D32" s="11">
         <v>95.2</v>
       </c>
-      <c r="E32" s="13">
-        <v>0</v>
-      </c>
-      <c r="F32" s="13">
+      <c r="E32" s="11">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
         <v>95.6</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="11">
         <v>4</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="11">
         <v>96.6</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="11">
         <v>7</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="11">
         <v>96.6</v>
       </c>
-      <c r="K32" s="13">
-        <v>1</v>
-      </c>
-      <c r="L32" s="13">
+      <c r="K32" s="11">
+        <v>1</v>
+      </c>
+      <c r="L32" s="11">
         <v>95.6</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M32" s="11">
         <v>3</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N32" s="11">
         <v>95.6</v>
       </c>
-      <c r="O32" s="13">
-        <v>2</v>
-      </c>
-      <c r="P32" s="14">
+      <c r="O32" s="11">
+        <v>2</v>
+      </c>
+      <c r="P32" s="12">
         <v>94.6</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="26"/>
-      <c r="B33" s="5" t="s">
+      <c r="A33" s="29"/>
+      <c r="B33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="12">
-        <v>2</v>
-      </c>
-      <c r="D33" s="13">
+      <c r="C33" s="10">
+        <v>2</v>
+      </c>
+      <c r="D33" s="11">
         <v>89.2</v>
       </c>
-      <c r="E33" s="13">
-        <v>2</v>
-      </c>
-      <c r="F33" s="13">
+      <c r="E33" s="11">
+        <v>2</v>
+      </c>
+      <c r="F33" s="11">
         <v>91</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="11">
         <v>4</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="11">
         <v>87.6</v>
       </c>
-      <c r="I33" s="13">
-        <v>2</v>
-      </c>
-      <c r="J33" s="13">
+      <c r="I33" s="11">
+        <v>2</v>
+      </c>
+      <c r="J33" s="11">
         <v>93.6</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="11">
         <v>18</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="11">
         <v>73.8</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="11">
         <v>23</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N33" s="11">
         <v>87</v>
       </c>
-      <c r="O33" s="13">
+      <c r="O33" s="11">
         <v>25</v>
       </c>
-      <c r="P33" s="14">
+      <c r="P33" s="12">
         <v>83.2</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="26"/>
-      <c r="B34" s="5" t="s">
+      <c r="A34" s="29"/>
+      <c r="B34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="10">
         <v>3</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="11">
         <v>83.4</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="11">
         <v>3</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="11">
         <v>87.2</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="11">
         <v>6</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="11">
         <v>85.2</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="11">
         <v>3</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="11">
         <v>92.4</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="11">
         <v>29</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L34" s="11">
         <v>50.6</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="11">
         <v>34</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N34" s="11">
         <v>82.6</v>
       </c>
-      <c r="O34" s="13">
+      <c r="O34" s="11">
         <v>37</v>
       </c>
-      <c r="P34" s="14">
+      <c r="P34" s="12">
         <v>78.5</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="26"/>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="15">
-        <v>0</v>
-      </c>
-      <c r="D35" s="16">
+      <c r="C35" s="13">
+        <v>0</v>
+      </c>
+      <c r="D35" s="14">
         <v>95</v>
       </c>
-      <c r="E35" s="16">
-        <v>0</v>
-      </c>
-      <c r="F35" s="16">
+      <c r="E35" s="14">
+        <v>0</v>
+      </c>
+      <c r="F35" s="14">
         <v>95.4</v>
       </c>
-      <c r="G35" s="16">
-        <v>2</v>
-      </c>
-      <c r="H35" s="16">
+      <c r="G35" s="14">
+        <v>2</v>
+      </c>
+      <c r="H35" s="14">
         <v>96.4</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="14">
         <v>4</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="14">
         <v>95.8</v>
       </c>
-      <c r="K35" s="16">
-        <v>1</v>
-      </c>
-      <c r="L35" s="16">
+      <c r="K35" s="14">
+        <v>1</v>
+      </c>
+      <c r="L35" s="14">
         <v>93.8</v>
       </c>
-      <c r="M35" s="16">
-        <v>2</v>
-      </c>
-      <c r="N35" s="16">
+      <c r="M35" s="14">
+        <v>2</v>
+      </c>
+      <c r="N35" s="14">
         <v>95</v>
       </c>
-      <c r="O35" s="16">
-        <v>1</v>
-      </c>
-      <c r="P35" s="17">
+      <c r="O35" s="14">
+        <v>1</v>
+      </c>
+      <c r="P35" s="15">
         <v>94.2</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="26"/>
-      <c r="B36" s="7" t="s">
+      <c r="A36" s="29"/>
+      <c r="B36" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
     </row>
     <row r="37" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="26"/>
-      <c r="B37" s="5" t="s">
+      <c r="A37" s="29"/>
+      <c r="B37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="7">
         <v>6</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="8">
         <v>45</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="8">
         <v>4</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="8">
         <v>56.2</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="8">
         <v>33</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="8">
         <v>3.8</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="8">
         <v>31</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="8">
         <v>5.6</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="8">
         <v>45</v>
       </c>
-      <c r="L37" s="10">
+      <c r="L37" s="8">
         <v>1.8</v>
       </c>
-      <c r="M37" s="10">
+      <c r="M37" s="8">
         <v>49</v>
       </c>
-      <c r="N37" s="10">
+      <c r="N37" s="8">
         <v>21</v>
       </c>
-      <c r="O37" s="10">
+      <c r="O37" s="8">
         <v>48</v>
       </c>
-      <c r="P37" s="11">
+      <c r="P37" s="9">
         <v>22.2</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="26"/>
-      <c r="B38" s="5" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="12">
-        <v>2</v>
-      </c>
-      <c r="D38" s="13">
+      <c r="C38" s="10">
+        <v>2</v>
+      </c>
+      <c r="D38" s="11">
         <v>86.6</v>
       </c>
-      <c r="E38" s="13">
-        <v>2</v>
-      </c>
-      <c r="F38" s="13">
+      <c r="E38" s="11">
+        <v>2</v>
+      </c>
+      <c r="F38" s="11">
         <v>85.6</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="11">
         <v>16</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="11">
         <v>53.2</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="11">
         <v>17</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="11">
         <v>54.1</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="11">
         <v>18</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="11">
         <v>65.8</v>
       </c>
-      <c r="M38" s="13">
+      <c r="M38" s="11">
         <v>27</v>
       </c>
-      <c r="N38" s="13">
+      <c r="N38" s="11">
         <v>74.8</v>
       </c>
-      <c r="O38" s="13">
+      <c r="O38" s="11">
         <v>30</v>
       </c>
-      <c r="P38" s="14">
+      <c r="P38" s="12">
         <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="26"/>
-      <c r="B39" s="5" t="s">
+      <c r="A39" s="29"/>
+      <c r="B39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="12">
-        <v>1</v>
-      </c>
-      <c r="D39" s="13">
+      <c r="C39" s="10">
+        <v>1</v>
+      </c>
+      <c r="D39" s="11">
         <v>92.8</v>
       </c>
-      <c r="E39" s="13">
-        <v>1</v>
-      </c>
-      <c r="F39" s="13">
+      <c r="E39" s="11">
+        <v>1</v>
+      </c>
+      <c r="F39" s="11">
         <v>88.5</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="11">
         <v>5</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="11">
         <v>89.2</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="11">
         <v>3</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="11">
         <v>91.6</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K39" s="11">
         <v>7</v>
       </c>
-      <c r="L39" s="13">
+      <c r="L39" s="11">
         <v>85.6</v>
       </c>
-      <c r="M39" s="13">
+      <c r="M39" s="11">
         <v>14</v>
       </c>
-      <c r="N39" s="13">
+      <c r="N39" s="11">
         <v>87.9</v>
       </c>
-      <c r="O39" s="13">
+      <c r="O39" s="11">
         <v>16</v>
       </c>
-      <c r="P39" s="14">
+      <c r="P39" s="12">
         <v>84.6</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="26"/>
-      <c r="B40" s="5" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="10">
         <v>4</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="11">
         <v>73</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="11">
         <v>3</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="11">
         <v>80</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="11">
         <v>30</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="11">
         <v>56.8</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="11">
         <v>80</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="11">
         <v>67.400000000000006</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K40" s="11">
         <v>33</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L40" s="11">
         <v>34.799999999999997</v>
       </c>
-      <c r="M40" s="13">
+      <c r="M40" s="11">
         <v>31</v>
       </c>
-      <c r="N40" s="13">
+      <c r="N40" s="11">
         <v>72.8</v>
       </c>
-      <c r="O40" s="13">
+      <c r="O40" s="11">
         <v>31</v>
       </c>
-      <c r="P40" s="14">
+      <c r="P40" s="12">
         <v>68.8</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="26"/>
-      <c r="B41" s="5" t="s">
+      <c r="A41" s="29"/>
+      <c r="B41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="12">
-        <v>2</v>
-      </c>
-      <c r="D41" s="13">
+      <c r="C41" s="10">
+        <v>2</v>
+      </c>
+      <c r="D41" s="11">
         <v>91.8</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="11">
         <v>3</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="11">
         <v>83.2</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="11">
         <v>3</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="11">
         <v>92.9</v>
       </c>
-      <c r="I41" s="13">
-        <v>1</v>
-      </c>
-      <c r="J41" s="13">
+      <c r="I41" s="11">
+        <v>1</v>
+      </c>
+      <c r="J41" s="11">
         <v>94.6</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K41" s="11">
         <v>16</v>
       </c>
-      <c r="L41" s="13">
+      <c r="L41" s="11">
         <v>76.400000000000006</v>
       </c>
-      <c r="M41" s="13">
+      <c r="M41" s="11">
         <v>33</v>
       </c>
-      <c r="N41" s="13">
+      <c r="N41" s="11">
         <v>79.2</v>
       </c>
-      <c r="O41" s="13">
+      <c r="O41" s="11">
         <v>40</v>
       </c>
-      <c r="P41" s="14">
+      <c r="P41" s="12">
         <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="26"/>
-      <c r="B42" s="5" t="s">
+      <c r="A42" s="29"/>
+      <c r="B42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="12">
-        <v>2</v>
-      </c>
-      <c r="D42" s="13">
+      <c r="C42" s="10">
+        <v>2</v>
+      </c>
+      <c r="D42" s="11">
         <v>96.4</v>
       </c>
-      <c r="E42" s="13">
-        <v>1</v>
-      </c>
-      <c r="F42" s="13">
+      <c r="E42" s="11">
+        <v>1</v>
+      </c>
+      <c r="F42" s="11">
         <v>95.2</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="11">
         <v>23</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="11">
         <v>87.4</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="11">
         <v>36</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="11">
         <v>76.2</v>
       </c>
-      <c r="K42" s="13">
-        <v>2</v>
-      </c>
-      <c r="L42" s="13">
+      <c r="K42" s="11">
+        <v>2</v>
+      </c>
+      <c r="L42" s="11">
         <v>97.8</v>
       </c>
-      <c r="M42" s="13">
+      <c r="M42" s="11">
         <v>7</v>
       </c>
-      <c r="N42" s="13">
+      <c r="N42" s="11">
         <v>97</v>
       </c>
-      <c r="O42" s="13">
-        <v>1</v>
-      </c>
-      <c r="P42" s="14">
+      <c r="O42" s="11">
+        <v>1</v>
+      </c>
+      <c r="P42" s="12">
         <v>97.4</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="26"/>
-      <c r="B43" s="5" t="s">
+      <c r="A43" s="29"/>
+      <c r="B43" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="10">
         <v>3</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="11">
         <v>85.6</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="11">
         <v>3</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="11">
         <v>82.4</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="11">
         <v>6</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="11">
         <v>85.6</v>
       </c>
-      <c r="I43" s="13">
-        <v>2</v>
-      </c>
-      <c r="J43" s="13">
+      <c r="I43" s="11">
+        <v>2</v>
+      </c>
+      <c r="J43" s="11">
         <v>91</v>
       </c>
-      <c r="K43" s="13">
+      <c r="K43" s="11">
         <v>23</v>
       </c>
-      <c r="L43" s="13">
+      <c r="L43" s="11">
         <v>59.4</v>
       </c>
-      <c r="M43" s="13">
+      <c r="M43" s="11">
         <v>34</v>
       </c>
-      <c r="N43" s="13">
+      <c r="N43" s="11">
         <v>74.400000000000006</v>
       </c>
-      <c r="O43" s="13">
+      <c r="O43" s="11">
         <v>36</v>
       </c>
-      <c r="P43" s="14">
+      <c r="P43" s="12">
         <v>69.400000000000006</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="26"/>
-      <c r="B44" s="5" t="s">
+      <c r="A44" s="29"/>
+      <c r="B44" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="10">
         <v>4</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="11">
         <v>77.7</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="11">
         <v>4</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="11">
         <v>79.400000000000006</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="11">
         <v>6</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="11">
         <v>84.8</v>
       </c>
-      <c r="I44" s="13">
-        <v>2</v>
-      </c>
-      <c r="J44" s="13">
+      <c r="I44" s="11">
+        <v>2</v>
+      </c>
+      <c r="J44" s="11">
         <v>91.6</v>
       </c>
-      <c r="K44" s="13">
+      <c r="K44" s="11">
         <v>37</v>
       </c>
-      <c r="L44" s="13">
+      <c r="L44" s="11">
         <v>30.3</v>
       </c>
-      <c r="M44" s="13">
+      <c r="M44" s="11">
         <v>46</v>
       </c>
-      <c r="N44" s="13">
+      <c r="N44" s="11">
         <v>64.8</v>
       </c>
-      <c r="O44" s="13">
+      <c r="O44" s="11">
         <v>47</v>
       </c>
-      <c r="P44" s="14">
+      <c r="P44" s="12">
         <v>64.900000000000006</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="27"/>
-      <c r="B45" s="6" t="s">
+      <c r="A45" s="30"/>
+      <c r="B45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="15">
-        <v>0</v>
-      </c>
-      <c r="D45" s="16">
+      <c r="C45" s="13">
+        <v>0</v>
+      </c>
+      <c r="D45" s="14">
         <v>96.4</v>
       </c>
-      <c r="E45" s="16">
-        <v>0</v>
-      </c>
-      <c r="F45" s="16">
+      <c r="E45" s="14">
+        <v>0</v>
+      </c>
+      <c r="F45" s="14">
         <v>94.8</v>
       </c>
-      <c r="G45" s="16">
-        <v>1</v>
-      </c>
-      <c r="H45" s="16">
+      <c r="G45" s="14">
+        <v>1</v>
+      </c>
+      <c r="H45" s="14">
         <v>97</v>
       </c>
-      <c r="I45" s="16">
+      <c r="I45" s="14">
         <v>4</v>
       </c>
-      <c r="J45" s="16">
+      <c r="J45" s="14">
         <v>96.4</v>
       </c>
-      <c r="K45" s="16">
-        <v>1</v>
-      </c>
-      <c r="L45" s="16">
+      <c r="K45" s="14">
+        <v>1</v>
+      </c>
+      <c r="L45" s="14">
         <v>94</v>
       </c>
-      <c r="M45" s="16">
+      <c r="M45" s="14">
         <v>3</v>
       </c>
-      <c r="N45" s="16">
+      <c r="N45" s="14">
         <v>94.8</v>
       </c>
-      <c r="O45" s="16">
-        <v>1</v>
-      </c>
-      <c r="P45" s="17">
+      <c r="O45" s="14">
+        <v>1</v>
+      </c>
+      <c r="P45" s="15">
         <v>96.8</v>
       </c>
     </row>
@@ -2961,4 +2963,4090 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EDC385-1425-E34A-9ADC-342644CD6096}">
+  <dimension ref="A1:Q45"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="3.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+    </row>
+    <row r="2" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="26"/>
+    </row>
+    <row r="3" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16">
+        <v>11</v>
+      </c>
+      <c r="D4" s="17">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E4" s="17">
+        <v>8</v>
+      </c>
+      <c r="F4" s="17">
+        <v>53.8</v>
+      </c>
+      <c r="G4" s="17">
+        <v>9</v>
+      </c>
+      <c r="H4" s="17">
+        <v>81</v>
+      </c>
+      <c r="I4" s="17">
+        <v>5</v>
+      </c>
+      <c r="J4" s="17">
+        <v>88.8</v>
+      </c>
+      <c r="K4" s="17">
+        <v>16</v>
+      </c>
+      <c r="L4" s="17">
+        <v>77</v>
+      </c>
+      <c r="M4" s="17">
+        <v>22</v>
+      </c>
+      <c r="N4" s="17">
+        <v>87</v>
+      </c>
+      <c r="O4" s="17">
+        <v>16</v>
+      </c>
+      <c r="P4" s="18">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="29"/>
+      <c r="B5" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+    </row>
+    <row r="6" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="29"/>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>92.8</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>93.8</v>
+      </c>
+      <c r="G6" s="8">
+        <v>10</v>
+      </c>
+      <c r="H6" s="8">
+        <v>75</v>
+      </c>
+      <c r="I6" s="8">
+        <v>10</v>
+      </c>
+      <c r="J6" s="8">
+        <v>74.2</v>
+      </c>
+      <c r="K6" s="8">
+        <v>11</v>
+      </c>
+      <c r="L6" s="8">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="M6" s="8">
+        <v>11</v>
+      </c>
+      <c r="N6" s="8">
+        <v>88.2</v>
+      </c>
+      <c r="O6" s="8">
+        <v>12</v>
+      </c>
+      <c r="P6" s="9">
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>96.2</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>97.4</v>
+      </c>
+      <c r="G7" s="11">
+        <v>2</v>
+      </c>
+      <c r="H7" s="11">
+        <v>93.6</v>
+      </c>
+      <c r="I7" s="11">
+        <v>2</v>
+      </c>
+      <c r="J7" s="11">
+        <v>91</v>
+      </c>
+      <c r="K7" s="11">
+        <v>3</v>
+      </c>
+      <c r="L7" s="11">
+        <v>92.2</v>
+      </c>
+      <c r="M7" s="11">
+        <v>4</v>
+      </c>
+      <c r="N7" s="11">
+        <v>94.4</v>
+      </c>
+      <c r="O7" s="11">
+        <v>5</v>
+      </c>
+      <c r="P7" s="12">
+        <v>96.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>96.6</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>98</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>94.4</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>92.8</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>94</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
+        <v>95</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12">
+        <v>96.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>96.8</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>98</v>
+      </c>
+      <c r="G9" s="11">
+        <v>4</v>
+      </c>
+      <c r="H9" s="11">
+        <v>96</v>
+      </c>
+      <c r="I9" s="11">
+        <v>6</v>
+      </c>
+      <c r="J9" s="11">
+        <v>95.6</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <v>95.2</v>
+      </c>
+      <c r="M9" s="11">
+        <v>1</v>
+      </c>
+      <c r="N9" s="11">
+        <v>95.4</v>
+      </c>
+      <c r="O9" s="11">
+        <v>1</v>
+      </c>
+      <c r="P9" s="12">
+        <v>97.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>95.8</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
+        <v>96.8</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11">
+        <v>94.6</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>92.6</v>
+      </c>
+      <c r="K10" s="11">
+        <v>3</v>
+      </c>
+      <c r="L10" s="11">
+        <v>92</v>
+      </c>
+      <c r="M10" s="11">
+        <v>7</v>
+      </c>
+      <c r="N10" s="11">
+        <v>94.2</v>
+      </c>
+      <c r="O10" s="11">
+        <v>8</v>
+      </c>
+      <c r="P10" s="12">
+        <v>95.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>96.8</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>98.2</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11">
+        <v>95.4</v>
+      </c>
+      <c r="I11" s="11">
+        <v>2</v>
+      </c>
+      <c r="J11" s="11">
+        <v>95</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>94.6</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>94.8</v>
+      </c>
+      <c r="O11" s="11">
+        <v>1</v>
+      </c>
+      <c r="P11" s="12">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11">
+        <v>95.6</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11">
+        <v>96.8</v>
+      </c>
+      <c r="G12" s="11">
+        <v>2</v>
+      </c>
+      <c r="H12" s="11">
+        <v>93</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11">
+        <v>92.4</v>
+      </c>
+      <c r="K12" s="11">
+        <v>6</v>
+      </c>
+      <c r="L12" s="11">
+        <v>89.2</v>
+      </c>
+      <c r="M12" s="11">
+        <v>8</v>
+      </c>
+      <c r="N12" s="11">
+        <v>95</v>
+      </c>
+      <c r="O12" s="11">
+        <v>9</v>
+      </c>
+      <c r="P12" s="12">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
+        <v>95</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11">
+        <v>95.6</v>
+      </c>
+      <c r="G13" s="11">
+        <v>3</v>
+      </c>
+      <c r="H13" s="11">
+        <v>92.4</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11">
+        <v>93</v>
+      </c>
+      <c r="K13" s="11">
+        <v>10</v>
+      </c>
+      <c r="L13" s="11">
+        <v>85.8</v>
+      </c>
+      <c r="M13" s="11">
+        <v>12</v>
+      </c>
+      <c r="N13" s="11">
+        <v>93</v>
+      </c>
+      <c r="O13" s="11">
+        <v>14</v>
+      </c>
+      <c r="P13" s="12">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <v>97</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0</v>
+      </c>
+      <c r="F14" s="21">
+        <v>97.6</v>
+      </c>
+      <c r="G14" s="21">
+        <v>1</v>
+      </c>
+      <c r="H14" s="21">
+        <v>94.4</v>
+      </c>
+      <c r="I14" s="21">
+        <v>1</v>
+      </c>
+      <c r="J14" s="21">
+        <v>93.8</v>
+      </c>
+      <c r="K14" s="21">
+        <v>0</v>
+      </c>
+      <c r="L14" s="21">
+        <v>94.8</v>
+      </c>
+      <c r="M14" s="21">
+        <v>0</v>
+      </c>
+      <c r="N14" s="21">
+        <v>94.4</v>
+      </c>
+      <c r="O14" s="21">
+        <v>0</v>
+      </c>
+      <c r="P14" s="22">
+        <v>96.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+    </row>
+    <row r="16" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="29"/>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>89</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8">
+        <v>90.4</v>
+      </c>
+      <c r="G16" s="8">
+        <v>12</v>
+      </c>
+      <c r="H16" s="8">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="I16" s="8">
+        <v>11</v>
+      </c>
+      <c r="J16" s="8">
+        <v>70</v>
+      </c>
+      <c r="K16" s="8">
+        <v>19</v>
+      </c>
+      <c r="L16" s="8">
+        <v>59</v>
+      </c>
+      <c r="M16" s="8">
+        <v>21</v>
+      </c>
+      <c r="N16" s="8">
+        <v>80.8</v>
+      </c>
+      <c r="O16" s="8">
+        <v>20</v>
+      </c>
+      <c r="P16" s="9">
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="29"/>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11">
+        <v>94.4</v>
+      </c>
+      <c r="E17" s="11">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11">
+        <v>93.2</v>
+      </c>
+      <c r="G17" s="11">
+        <v>5</v>
+      </c>
+      <c r="H17" s="11">
+        <v>88.4</v>
+      </c>
+      <c r="I17" s="11">
+        <v>5</v>
+      </c>
+      <c r="J17" s="11">
+        <v>87.2</v>
+      </c>
+      <c r="K17" s="11">
+        <v>5</v>
+      </c>
+      <c r="L17" s="11">
+        <v>89</v>
+      </c>
+      <c r="M17" s="11">
+        <v>8</v>
+      </c>
+      <c r="N17" s="11">
+        <v>93.2</v>
+      </c>
+      <c r="O17" s="11">
+        <v>10</v>
+      </c>
+      <c r="P17" s="12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="29"/>
+      <c r="B18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0</v>
+      </c>
+      <c r="D18" s="11">
+        <v>94.8</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0</v>
+      </c>
+      <c r="F18" s="11">
+        <v>93.4</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11">
+        <v>93.8</v>
+      </c>
+      <c r="I18" s="11">
+        <v>1</v>
+      </c>
+      <c r="J18" s="11">
+        <v>94.6</v>
+      </c>
+      <c r="K18" s="11">
+        <v>2</v>
+      </c>
+      <c r="L18" s="11">
+        <v>92.6</v>
+      </c>
+      <c r="M18" s="11">
+        <v>2</v>
+      </c>
+      <c r="N18" s="11">
+        <v>94.4</v>
+      </c>
+      <c r="O18" s="11">
+        <v>3</v>
+      </c>
+      <c r="P18" s="12">
+        <v>92.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="29"/>
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11">
+        <v>94</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11">
+        <v>93.2</v>
+      </c>
+      <c r="G19" s="11">
+        <v>58</v>
+      </c>
+      <c r="H19" s="11">
+        <v>92</v>
+      </c>
+      <c r="I19" s="11">
+        <v>34</v>
+      </c>
+      <c r="J19" s="11">
+        <v>93</v>
+      </c>
+      <c r="K19" s="11">
+        <v>10</v>
+      </c>
+      <c r="L19" s="11">
+        <v>86.2</v>
+      </c>
+      <c r="M19" s="11">
+        <v>9</v>
+      </c>
+      <c r="N19" s="11">
+        <v>93.8</v>
+      </c>
+      <c r="O19" s="11">
+        <v>10</v>
+      </c>
+      <c r="P19" s="12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="29"/>
+      <c r="B20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" s="11">
+        <v>94.8</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20" s="11">
+        <v>93.8</v>
+      </c>
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11">
+        <v>95.4</v>
+      </c>
+      <c r="I20" s="11">
+        <v>1</v>
+      </c>
+      <c r="J20" s="11">
+        <v>95.2</v>
+      </c>
+      <c r="K20" s="11">
+        <v>4</v>
+      </c>
+      <c r="L20" s="11">
+        <v>90.8</v>
+      </c>
+      <c r="M20" s="11">
+        <v>10</v>
+      </c>
+      <c r="N20" s="11">
+        <v>93.2</v>
+      </c>
+      <c r="O20" s="11">
+        <v>13</v>
+      </c>
+      <c r="P20" s="12">
+        <v>91.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="29"/>
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0</v>
+      </c>
+      <c r="D21" s="11">
+        <v>95.4</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
+        <v>95.8</v>
+      </c>
+      <c r="G21" s="11">
+        <v>5</v>
+      </c>
+      <c r="H21" s="11">
+        <v>95.8</v>
+      </c>
+      <c r="I21" s="11">
+        <v>8</v>
+      </c>
+      <c r="J21" s="11">
+        <v>97.8</v>
+      </c>
+      <c r="K21" s="11">
+        <v>1</v>
+      </c>
+      <c r="L21" s="11">
+        <v>95.2</v>
+      </c>
+      <c r="M21" s="11">
+        <v>1</v>
+      </c>
+      <c r="N21" s="11">
+        <v>96.4</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
+      <c r="P21" s="12">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="29"/>
+      <c r="B22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="10">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11">
+        <v>95</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22" s="11">
+        <v>93.6</v>
+      </c>
+      <c r="G22" s="11">
+        <v>2</v>
+      </c>
+      <c r="H22" s="11">
+        <v>93.8</v>
+      </c>
+      <c r="I22" s="11">
+        <v>1</v>
+      </c>
+      <c r="J22" s="11">
+        <v>94.4</v>
+      </c>
+      <c r="K22" s="11">
+        <v>9</v>
+      </c>
+      <c r="L22" s="11">
+        <v>87</v>
+      </c>
+      <c r="M22" s="11">
+        <v>12</v>
+      </c>
+      <c r="N22" s="11">
+        <v>92.2</v>
+      </c>
+      <c r="O22" s="11">
+        <v>14</v>
+      </c>
+      <c r="P22" s="12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="29"/>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11">
+        <v>93.4</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11">
+        <v>93.2</v>
+      </c>
+      <c r="G23" s="11">
+        <v>3</v>
+      </c>
+      <c r="H23" s="11">
+        <v>93.8</v>
+      </c>
+      <c r="I23" s="11">
+        <v>1</v>
+      </c>
+      <c r="J23" s="11">
+        <v>93.8</v>
+      </c>
+      <c r="K23" s="11">
+        <v>14</v>
+      </c>
+      <c r="L23" s="11">
+        <v>80</v>
+      </c>
+      <c r="M23" s="11">
+        <v>18</v>
+      </c>
+      <c r="N23" s="11">
+        <v>91.8</v>
+      </c>
+      <c r="O23" s="11">
+        <v>19</v>
+      </c>
+      <c r="P23" s="12">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="30"/>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="13">
+        <v>0</v>
+      </c>
+      <c r="D24" s="14">
+        <v>95.6</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14">
+        <v>94.8</v>
+      </c>
+      <c r="G24" s="14">
+        <v>1</v>
+      </c>
+      <c r="H24" s="14">
+        <v>95.2</v>
+      </c>
+      <c r="I24" s="14">
+        <v>1</v>
+      </c>
+      <c r="J24" s="14">
+        <v>95.6</v>
+      </c>
+      <c r="K24" s="14">
+        <v>0</v>
+      </c>
+      <c r="L24" s="14">
+        <v>95</v>
+      </c>
+      <c r="M24" s="14">
+        <v>1</v>
+      </c>
+      <c r="N24" s="14">
+        <v>96</v>
+      </c>
+      <c r="O24" s="14">
+        <v>0</v>
+      </c>
+      <c r="P24" s="15">
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="16">
+        <v>25</v>
+      </c>
+      <c r="D25" s="17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E25" s="17">
+        <v>17</v>
+      </c>
+      <c r="F25" s="17">
+        <v>27.4</v>
+      </c>
+      <c r="G25" s="17">
+        <v>15</v>
+      </c>
+      <c r="H25" s="17">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="I25" s="17">
+        <v>7</v>
+      </c>
+      <c r="J25" s="17">
+        <v>91</v>
+      </c>
+      <c r="K25" s="17">
+        <v>26</v>
+      </c>
+      <c r="L25" s="17">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="M25" s="17">
+        <v>36</v>
+      </c>
+      <c r="N25" s="17">
+        <v>84</v>
+      </c>
+      <c r="O25" s="17">
+        <v>19</v>
+      </c>
+      <c r="P25" s="18">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="29"/>
+      <c r="B26" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+    </row>
+    <row r="27" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="29"/>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3</v>
+      </c>
+      <c r="D27" s="8">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="E27" s="8">
+        <v>2</v>
+      </c>
+      <c r="F27" s="8">
+        <v>76</v>
+      </c>
+      <c r="G27" s="8">
+        <v>26</v>
+      </c>
+      <c r="H27" s="8">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I27" s="8">
+        <v>29</v>
+      </c>
+      <c r="J27" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="K27" s="8">
+        <v>25</v>
+      </c>
+      <c r="L27" s="8">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="M27" s="8">
+        <v>25</v>
+      </c>
+      <c r="N27" s="8">
+        <v>63.2</v>
+      </c>
+      <c r="O27" s="8">
+        <v>30</v>
+      </c>
+      <c r="P27" s="9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="29"/>
+      <c r="B28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="10">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11">
+        <v>94</v>
+      </c>
+      <c r="E28" s="11">
+        <v>1</v>
+      </c>
+      <c r="F28" s="11">
+        <v>92</v>
+      </c>
+      <c r="G28" s="11">
+        <v>5</v>
+      </c>
+      <c r="H28" s="11">
+        <v>88.2</v>
+      </c>
+      <c r="I28" s="11">
+        <v>6</v>
+      </c>
+      <c r="J28" s="11">
+        <v>88.6</v>
+      </c>
+      <c r="K28" s="11">
+        <v>7</v>
+      </c>
+      <c r="L28" s="11">
+        <v>90.8</v>
+      </c>
+      <c r="M28" s="11">
+        <v>10</v>
+      </c>
+      <c r="N28" s="11">
+        <v>91.4</v>
+      </c>
+      <c r="O28" s="11">
+        <v>13</v>
+      </c>
+      <c r="P28" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="29"/>
+      <c r="B29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0</v>
+      </c>
+      <c r="D29" s="11">
+        <v>95</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11">
+        <v>94.8</v>
+      </c>
+      <c r="G29" s="11">
+        <v>1</v>
+      </c>
+      <c r="H29" s="11">
+        <v>92</v>
+      </c>
+      <c r="I29" s="11">
+        <v>1</v>
+      </c>
+      <c r="J29" s="11">
+        <v>93.6</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <v>94.6</v>
+      </c>
+      <c r="M29" s="11">
+        <v>1</v>
+      </c>
+      <c r="N29" s="11">
+        <v>93.6</v>
+      </c>
+      <c r="O29" s="11">
+        <v>2</v>
+      </c>
+      <c r="P29" s="12">
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="29"/>
+      <c r="B30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0</v>
+      </c>
+      <c r="D30" s="11">
+        <v>97</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11">
+        <v>95.6</v>
+      </c>
+      <c r="G30" s="11">
+        <v>17</v>
+      </c>
+      <c r="H30" s="11">
+        <v>90.4</v>
+      </c>
+      <c r="I30" s="11">
+        <v>29</v>
+      </c>
+      <c r="J30" s="11">
+        <v>82.2</v>
+      </c>
+      <c r="K30" s="11">
+        <v>2</v>
+      </c>
+      <c r="L30" s="11">
+        <v>97</v>
+      </c>
+      <c r="M30" s="11">
+        <v>2</v>
+      </c>
+      <c r="N30" s="11">
+        <v>97</v>
+      </c>
+      <c r="O30" s="11">
+        <v>5</v>
+      </c>
+      <c r="P30" s="12">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="29"/>
+      <c r="B31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="10">
+        <v>1</v>
+      </c>
+      <c r="D31" s="11">
+        <v>94</v>
+      </c>
+      <c r="E31" s="11">
+        <v>2</v>
+      </c>
+      <c r="F31" s="11">
+        <v>89.6</v>
+      </c>
+      <c r="G31" s="11">
+        <v>2</v>
+      </c>
+      <c r="H31" s="11">
+        <v>92.8</v>
+      </c>
+      <c r="I31" s="11">
+        <v>1</v>
+      </c>
+      <c r="J31" s="11">
+        <v>94.2</v>
+      </c>
+      <c r="K31" s="11">
+        <v>10</v>
+      </c>
+      <c r="L31" s="11">
+        <v>87.4</v>
+      </c>
+      <c r="M31" s="11">
+        <v>21</v>
+      </c>
+      <c r="N31" s="11">
+        <v>89.6</v>
+      </c>
+      <c r="O31" s="11">
+        <v>27</v>
+      </c>
+      <c r="P31" s="12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="29"/>
+      <c r="B32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0</v>
+      </c>
+      <c r="D32" s="11">
+        <v>96</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>95.4</v>
+      </c>
+      <c r="G32" s="11">
+        <v>5</v>
+      </c>
+      <c r="H32" s="11">
+        <v>95.8</v>
+      </c>
+      <c r="I32" s="11">
+        <v>7</v>
+      </c>
+      <c r="J32" s="11">
+        <v>97.2</v>
+      </c>
+      <c r="K32" s="11">
+        <v>1</v>
+      </c>
+      <c r="L32" s="11">
+        <v>94.2</v>
+      </c>
+      <c r="M32" s="11">
+        <v>1</v>
+      </c>
+      <c r="N32" s="11">
+        <v>94.8</v>
+      </c>
+      <c r="O32" s="11">
+        <v>1</v>
+      </c>
+      <c r="P32" s="12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="29"/>
+      <c r="B33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="10">
+        <v>2</v>
+      </c>
+      <c r="D33" s="11">
+        <v>89.8</v>
+      </c>
+      <c r="E33" s="11">
+        <v>2</v>
+      </c>
+      <c r="F33" s="11">
+        <v>89.4</v>
+      </c>
+      <c r="G33" s="11">
+        <v>4</v>
+      </c>
+      <c r="H33" s="11">
+        <v>87.8</v>
+      </c>
+      <c r="I33" s="11">
+        <v>3</v>
+      </c>
+      <c r="J33" s="11">
+        <v>90.8</v>
+      </c>
+      <c r="K33" s="11">
+        <v>16</v>
+      </c>
+      <c r="L33" s="11">
+        <v>75</v>
+      </c>
+      <c r="M33" s="11">
+        <v>23</v>
+      </c>
+      <c r="N33" s="11">
+        <v>87</v>
+      </c>
+      <c r="O33" s="11">
+        <v>24</v>
+      </c>
+      <c r="P33" s="12">
+        <v>86.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="29"/>
+      <c r="B34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="10">
+        <v>3</v>
+      </c>
+      <c r="D34" s="11">
+        <v>84.8</v>
+      </c>
+      <c r="E34" s="11">
+        <v>3</v>
+      </c>
+      <c r="F34" s="11">
+        <v>85.4</v>
+      </c>
+      <c r="G34" s="11">
+        <v>6</v>
+      </c>
+      <c r="H34" s="11">
+        <v>88.6</v>
+      </c>
+      <c r="I34" s="11">
+        <v>3</v>
+      </c>
+      <c r="J34" s="11">
+        <v>90.6</v>
+      </c>
+      <c r="K34" s="11">
+        <v>28</v>
+      </c>
+      <c r="L34" s="11">
+        <v>51.6</v>
+      </c>
+      <c r="M34" s="11">
+        <v>34</v>
+      </c>
+      <c r="N34" s="11">
+        <v>81.8</v>
+      </c>
+      <c r="O34" s="11">
+        <v>37</v>
+      </c>
+      <c r="P34" s="12">
+        <v>78.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="29"/>
+      <c r="B35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="13">
+        <v>0</v>
+      </c>
+      <c r="D35" s="14">
+        <v>95.8</v>
+      </c>
+      <c r="E35" s="14">
+        <v>0</v>
+      </c>
+      <c r="F35" s="14">
+        <v>94.8</v>
+      </c>
+      <c r="G35" s="14">
+        <v>3</v>
+      </c>
+      <c r="H35" s="14">
+        <v>95.2</v>
+      </c>
+      <c r="I35" s="14">
+        <v>4</v>
+      </c>
+      <c r="J35" s="14">
+        <v>96.2</v>
+      </c>
+      <c r="K35" s="14">
+        <v>1</v>
+      </c>
+      <c r="L35" s="14">
+        <v>94.6</v>
+      </c>
+      <c r="M35" s="14">
+        <v>0</v>
+      </c>
+      <c r="N35" s="14">
+        <v>95</v>
+      </c>
+      <c r="O35" s="14">
+        <v>2</v>
+      </c>
+      <c r="P35" s="15">
+        <v>96.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="29"/>
+      <c r="B36" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+    </row>
+    <row r="37" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="29"/>
+      <c r="B37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="7">
+        <v>5</v>
+      </c>
+      <c r="D37" s="8">
+        <v>47</v>
+      </c>
+      <c r="E37" s="8">
+        <v>4</v>
+      </c>
+      <c r="F37" s="8">
+        <v>60</v>
+      </c>
+      <c r="G37" s="8">
+        <v>33</v>
+      </c>
+      <c r="H37" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="I37" s="8">
+        <v>31</v>
+      </c>
+      <c r="J37" s="8">
+        <v>7</v>
+      </c>
+      <c r="K37" s="8">
+        <v>45</v>
+      </c>
+      <c r="L37" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="M37" s="8">
+        <v>49</v>
+      </c>
+      <c r="N37" s="8">
+        <v>21</v>
+      </c>
+      <c r="O37" s="8">
+        <v>49</v>
+      </c>
+      <c r="P37" s="9">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="29"/>
+      <c r="B38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="10">
+        <v>2</v>
+      </c>
+      <c r="D38" s="11">
+        <v>90.4</v>
+      </c>
+      <c r="E38" s="11">
+        <v>2</v>
+      </c>
+      <c r="F38" s="11">
+        <v>84.4</v>
+      </c>
+      <c r="G38" s="11">
+        <v>16</v>
+      </c>
+      <c r="H38" s="11">
+        <v>54.8</v>
+      </c>
+      <c r="I38" s="11">
+        <v>17</v>
+      </c>
+      <c r="J38" s="11">
+        <v>50.8</v>
+      </c>
+      <c r="K38" s="11">
+        <v>18</v>
+      </c>
+      <c r="L38" s="11">
+        <v>69.2</v>
+      </c>
+      <c r="M38" s="11">
+        <v>26</v>
+      </c>
+      <c r="N38" s="11">
+        <v>76</v>
+      </c>
+      <c r="O38" s="11">
+        <v>31</v>
+      </c>
+      <c r="P38" s="12">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="29"/>
+      <c r="B39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="10">
+        <v>1</v>
+      </c>
+      <c r="D39" s="11">
+        <v>94</v>
+      </c>
+      <c r="E39" s="11">
+        <v>1</v>
+      </c>
+      <c r="F39" s="11">
+        <v>88</v>
+      </c>
+      <c r="G39" s="11">
+        <v>4</v>
+      </c>
+      <c r="H39" s="11">
+        <v>90</v>
+      </c>
+      <c r="I39" s="11">
+        <v>3</v>
+      </c>
+      <c r="J39" s="11">
+        <v>86.4</v>
+      </c>
+      <c r="K39" s="11">
+        <v>7</v>
+      </c>
+      <c r="L39" s="11">
+        <v>87.8</v>
+      </c>
+      <c r="M39" s="11">
+        <v>11</v>
+      </c>
+      <c r="N39" s="11">
+        <v>90.2</v>
+      </c>
+      <c r="O39" s="11">
+        <v>15</v>
+      </c>
+      <c r="P39" s="12">
+        <v>84.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="29"/>
+      <c r="B40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="10">
+        <v>4</v>
+      </c>
+      <c r="D40" s="11">
+        <v>76.2</v>
+      </c>
+      <c r="E40" s="11">
+        <v>2</v>
+      </c>
+      <c r="F40" s="11">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="G40" s="11">
+        <v>23</v>
+      </c>
+      <c r="H40" s="11">
+        <v>59.4</v>
+      </c>
+      <c r="I40" s="11">
+        <v>42</v>
+      </c>
+      <c r="J40" s="11">
+        <v>66.2</v>
+      </c>
+      <c r="K40" s="11">
+        <v>33</v>
+      </c>
+      <c r="L40" s="11">
+        <v>34.6</v>
+      </c>
+      <c r="M40" s="11">
+        <v>31</v>
+      </c>
+      <c r="N40" s="11">
+        <v>71</v>
+      </c>
+      <c r="O40" s="11">
+        <v>33</v>
+      </c>
+      <c r="P40" s="12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="29"/>
+      <c r="B41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="10">
+        <v>2</v>
+      </c>
+      <c r="D41" s="11">
+        <v>92.8</v>
+      </c>
+      <c r="E41" s="11">
+        <v>3</v>
+      </c>
+      <c r="F41" s="11">
+        <v>84.2</v>
+      </c>
+      <c r="G41" s="11">
+        <v>3</v>
+      </c>
+      <c r="H41" s="11">
+        <v>94.2</v>
+      </c>
+      <c r="I41" s="11">
+        <v>2</v>
+      </c>
+      <c r="J41" s="11">
+        <v>90.2</v>
+      </c>
+      <c r="K41" s="11">
+        <v>16</v>
+      </c>
+      <c r="L41" s="11">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="M41" s="11">
+        <v>33</v>
+      </c>
+      <c r="N41" s="11">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="O41" s="11">
+        <v>40</v>
+      </c>
+      <c r="P41" s="12">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="29"/>
+      <c r="B42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="10">
+        <v>2</v>
+      </c>
+      <c r="D42" s="11">
+        <v>94.2</v>
+      </c>
+      <c r="E42" s="11">
+        <v>1</v>
+      </c>
+      <c r="F42" s="11">
+        <v>96.6</v>
+      </c>
+      <c r="G42" s="11">
+        <v>23</v>
+      </c>
+      <c r="H42" s="11">
+        <v>87.6</v>
+      </c>
+      <c r="I42" s="11">
+        <v>35</v>
+      </c>
+      <c r="J42" s="11">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="K42" s="11">
+        <v>2</v>
+      </c>
+      <c r="L42" s="11">
+        <v>96.4</v>
+      </c>
+      <c r="M42" s="11">
+        <v>5</v>
+      </c>
+      <c r="N42" s="11">
+        <v>96.6</v>
+      </c>
+      <c r="O42" s="11">
+        <v>2</v>
+      </c>
+      <c r="P42" s="12">
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="29"/>
+      <c r="B43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="10">
+        <v>3</v>
+      </c>
+      <c r="D43" s="11">
+        <v>85.8</v>
+      </c>
+      <c r="E43" s="11">
+        <v>3</v>
+      </c>
+      <c r="F43" s="11">
+        <v>82.8</v>
+      </c>
+      <c r="G43" s="11">
+        <v>5</v>
+      </c>
+      <c r="H43" s="11">
+        <v>87</v>
+      </c>
+      <c r="I43" s="11">
+        <v>3</v>
+      </c>
+      <c r="J43" s="11">
+        <v>87.6</v>
+      </c>
+      <c r="K43" s="11">
+        <v>25</v>
+      </c>
+      <c r="L43" s="11">
+        <v>61.6</v>
+      </c>
+      <c r="M43" s="11">
+        <v>34</v>
+      </c>
+      <c r="N43" s="11">
+        <v>72</v>
+      </c>
+      <c r="O43" s="11">
+        <v>36</v>
+      </c>
+      <c r="P43" s="12">
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="29"/>
+      <c r="B44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="10">
+        <v>4</v>
+      </c>
+      <c r="D44" s="11">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="E44" s="11">
+        <v>4</v>
+      </c>
+      <c r="F44" s="11">
+        <v>77</v>
+      </c>
+      <c r="G44" s="11">
+        <v>6</v>
+      </c>
+      <c r="H44" s="11">
+        <v>88.2</v>
+      </c>
+      <c r="I44" s="11">
+        <v>3</v>
+      </c>
+      <c r="J44" s="11">
+        <v>87</v>
+      </c>
+      <c r="K44" s="11">
+        <v>37</v>
+      </c>
+      <c r="L44" s="11">
+        <v>31.8</v>
+      </c>
+      <c r="M44" s="11">
+        <v>45</v>
+      </c>
+      <c r="N44" s="11">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="O44" s="11">
+        <v>49</v>
+      </c>
+      <c r="P44" s="12">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="30"/>
+      <c r="B45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="13">
+        <v>0</v>
+      </c>
+      <c r="D45" s="14">
+        <v>95.6</v>
+      </c>
+      <c r="E45" s="14">
+        <v>0</v>
+      </c>
+      <c r="F45" s="14">
+        <v>93.8</v>
+      </c>
+      <c r="G45" s="14">
+        <v>2</v>
+      </c>
+      <c r="H45" s="14">
+        <v>97.4</v>
+      </c>
+      <c r="I45" s="14">
+        <v>4</v>
+      </c>
+      <c r="J45" s="14">
+        <v>93.2</v>
+      </c>
+      <c r="K45" s="14">
+        <v>0</v>
+      </c>
+      <c r="L45" s="14">
+        <v>96.6</v>
+      </c>
+      <c r="M45" s="14">
+        <v>0</v>
+      </c>
+      <c r="N45" s="14">
+        <v>95</v>
+      </c>
+      <c r="O45" s="14">
+        <v>0</v>
+      </c>
+      <c r="P45" s="15">
+        <v>95.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A4:A24"/>
+    <mergeCell ref="B5:P5"/>
+    <mergeCell ref="B15:P15"/>
+    <mergeCell ref="A25:A45"/>
+    <mergeCell ref="B26:P26"/>
+    <mergeCell ref="B36:P36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A769D2-B10C-7B40-BDF3-6FA7DF1B7588}">
+  <dimension ref="A1:Q45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="3.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+    </row>
+    <row r="2" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="26"/>
+    </row>
+    <row r="3" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16">
+        <v>11</v>
+      </c>
+      <c r="D4" s="17">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E4" s="17">
+        <v>8</v>
+      </c>
+      <c r="F4" s="17">
+        <v>53.8</v>
+      </c>
+      <c r="G4" s="17">
+        <v>9</v>
+      </c>
+      <c r="H4" s="17">
+        <v>81</v>
+      </c>
+      <c r="I4" s="17">
+        <v>5</v>
+      </c>
+      <c r="J4" s="17">
+        <v>88.8</v>
+      </c>
+      <c r="K4" s="17">
+        <v>16</v>
+      </c>
+      <c r="L4" s="17">
+        <v>77</v>
+      </c>
+      <c r="M4" s="17">
+        <v>22</v>
+      </c>
+      <c r="N4" s="17">
+        <v>87</v>
+      </c>
+      <c r="O4" s="17">
+        <v>16</v>
+      </c>
+      <c r="P4" s="18">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="29"/>
+      <c r="B5" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+    </row>
+    <row r="6" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="29"/>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>92.5</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>93.3</v>
+      </c>
+      <c r="G6" s="8">
+        <v>9</v>
+      </c>
+      <c r="H6" s="8">
+        <v>74.8</v>
+      </c>
+      <c r="I6" s="8">
+        <v>10</v>
+      </c>
+      <c r="J6" s="8">
+        <v>73.5</v>
+      </c>
+      <c r="K6" s="8">
+        <v>11</v>
+      </c>
+      <c r="L6" s="8">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="M6" s="8">
+        <v>11</v>
+      </c>
+      <c r="N6" s="8">
+        <v>87.5</v>
+      </c>
+      <c r="O6" s="8">
+        <v>12</v>
+      </c>
+      <c r="P6" s="9">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>96.4</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>96.4</v>
+      </c>
+      <c r="G7" s="11">
+        <v>2</v>
+      </c>
+      <c r="H7" s="11">
+        <v>92.9</v>
+      </c>
+      <c r="I7" s="11">
+        <v>2</v>
+      </c>
+      <c r="J7" s="11">
+        <v>90.7</v>
+      </c>
+      <c r="K7" s="11">
+        <v>3</v>
+      </c>
+      <c r="L7" s="11">
+        <v>92.3</v>
+      </c>
+      <c r="M7" s="11">
+        <v>3</v>
+      </c>
+      <c r="N7" s="11">
+        <v>94.3</v>
+      </c>
+      <c r="O7" s="11">
+        <v>5</v>
+      </c>
+      <c r="P7" s="12">
+        <v>95.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>96.3</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>96.8</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>94.8</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>92.5</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>93.7</v>
+      </c>
+      <c r="M8" s="11">
+        <v>1</v>
+      </c>
+      <c r="N8" s="11">
+        <v>95.2</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>97.1</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>97.5</v>
+      </c>
+      <c r="G9" s="11">
+        <v>4</v>
+      </c>
+      <c r="H9" s="11">
+        <v>96.4</v>
+      </c>
+      <c r="I9" s="11">
+        <v>6</v>
+      </c>
+      <c r="J9" s="11">
+        <v>95.1</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <v>94.8</v>
+      </c>
+      <c r="M9" s="11">
+        <v>1</v>
+      </c>
+      <c r="N9" s="11">
+        <v>95.3</v>
+      </c>
+      <c r="O9" s="11">
+        <v>1</v>
+      </c>
+      <c r="P9" s="12">
+        <v>96.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>96.7</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
+        <v>96.3</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11">
+        <v>93.6</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>92.5</v>
+      </c>
+      <c r="K10" s="11">
+        <v>3</v>
+      </c>
+      <c r="L10" s="11">
+        <v>92.4</v>
+      </c>
+      <c r="M10" s="11">
+        <v>6</v>
+      </c>
+      <c r="N10" s="11">
+        <v>94.4</v>
+      </c>
+      <c r="O10" s="11">
+        <v>8</v>
+      </c>
+      <c r="P10" s="12">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>96.8</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>97.1</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11">
+        <v>95.6</v>
+      </c>
+      <c r="I11" s="11">
+        <v>2</v>
+      </c>
+      <c r="J11" s="11">
+        <v>94.5</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>94.8</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>94.4</v>
+      </c>
+      <c r="O11" s="11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="12">
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11">
+        <v>95.1</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11">
+        <v>96.1</v>
+      </c>
+      <c r="G12" s="11">
+        <v>2</v>
+      </c>
+      <c r="H12" s="11">
+        <v>92.4</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11">
+        <v>92.8</v>
+      </c>
+      <c r="K12" s="11">
+        <v>6</v>
+      </c>
+      <c r="L12" s="11">
+        <v>89.7</v>
+      </c>
+      <c r="M12" s="11">
+        <v>8</v>
+      </c>
+      <c r="N12" s="11">
+        <v>92.9</v>
+      </c>
+      <c r="O12" s="11">
+        <v>9</v>
+      </c>
+      <c r="P12" s="12">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
+        <v>94.4</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11">
+        <v>95.6</v>
+      </c>
+      <c r="G13" s="11">
+        <v>2</v>
+      </c>
+      <c r="H13" s="11">
+        <v>92.4</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11">
+        <v>92.3</v>
+      </c>
+      <c r="K13" s="11">
+        <v>10</v>
+      </c>
+      <c r="L13" s="11">
+        <v>85.5</v>
+      </c>
+      <c r="M13" s="11">
+        <v>13</v>
+      </c>
+      <c r="N13" s="11">
+        <v>92.8</v>
+      </c>
+      <c r="O13" s="11">
+        <v>14</v>
+      </c>
+      <c r="P13" s="12">
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <v>96.3</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0</v>
+      </c>
+      <c r="F14" s="21">
+        <v>97.6</v>
+      </c>
+      <c r="G14" s="21">
+        <v>1</v>
+      </c>
+      <c r="H14" s="21">
+        <v>94.8</v>
+      </c>
+      <c r="I14" s="21">
+        <v>1</v>
+      </c>
+      <c r="J14" s="21">
+        <v>94.5</v>
+      </c>
+      <c r="K14" s="21">
+        <v>0</v>
+      </c>
+      <c r="L14" s="21">
+        <v>94.8</v>
+      </c>
+      <c r="M14" s="21">
+        <v>0</v>
+      </c>
+      <c r="N14" s="21">
+        <v>95.3</v>
+      </c>
+      <c r="O14" s="21">
+        <v>0</v>
+      </c>
+      <c r="P14" s="22">
+        <v>96.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+    </row>
+    <row r="16" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="29"/>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>85.9</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8">
+        <v>87.6</v>
+      </c>
+      <c r="G16" s="8">
+        <v>12</v>
+      </c>
+      <c r="H16" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="I16" s="8">
+        <v>11</v>
+      </c>
+      <c r="J16" s="8">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="K16" s="8">
+        <v>19</v>
+      </c>
+      <c r="L16" s="8">
+        <v>59.9</v>
+      </c>
+      <c r="M16" s="8">
+        <v>21</v>
+      </c>
+      <c r="N16" s="8">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="O16" s="8">
+        <v>20</v>
+      </c>
+      <c r="P16" s="9">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="29"/>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11">
+        <v>92.4</v>
+      </c>
+      <c r="E17" s="11">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11">
+        <v>92.5</v>
+      </c>
+      <c r="G17" s="11">
+        <v>5</v>
+      </c>
+      <c r="H17" s="11">
+        <v>88.9</v>
+      </c>
+      <c r="I17" s="11">
+        <v>5</v>
+      </c>
+      <c r="J17" s="11">
+        <v>87.9</v>
+      </c>
+      <c r="K17" s="11">
+        <v>5</v>
+      </c>
+      <c r="L17" s="11">
+        <v>89.3</v>
+      </c>
+      <c r="M17" s="11">
+        <v>9</v>
+      </c>
+      <c r="N17" s="11">
+        <v>91.6</v>
+      </c>
+      <c r="O17" s="11">
+        <v>11</v>
+      </c>
+      <c r="P17" s="12">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="29"/>
+      <c r="B18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0</v>
+      </c>
+      <c r="D18" s="11">
+        <v>93.1</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0</v>
+      </c>
+      <c r="F18" s="11">
+        <v>93.6</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11">
+        <v>94.8</v>
+      </c>
+      <c r="I18" s="11">
+        <v>1</v>
+      </c>
+      <c r="J18" s="11">
+        <v>94.5</v>
+      </c>
+      <c r="K18" s="11">
+        <v>1</v>
+      </c>
+      <c r="L18" s="11">
+        <v>92.8</v>
+      </c>
+      <c r="M18" s="11">
+        <v>3</v>
+      </c>
+      <c r="N18" s="11">
+        <v>93.5</v>
+      </c>
+      <c r="O18" s="11">
+        <v>5</v>
+      </c>
+      <c r="P18" s="12">
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="29"/>
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11">
+        <v>91.5</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>93.6</v>
+      </c>
+      <c r="G19" s="11">
+        <v>58</v>
+      </c>
+      <c r="H19" s="11">
+        <v>91.6</v>
+      </c>
+      <c r="I19" s="11">
+        <v>34</v>
+      </c>
+      <c r="J19" s="11">
+        <v>94.5</v>
+      </c>
+      <c r="K19" s="11">
+        <v>10</v>
+      </c>
+      <c r="L19" s="11">
+        <v>86</v>
+      </c>
+      <c r="M19" s="11">
+        <v>9</v>
+      </c>
+      <c r="N19" s="11">
+        <v>93.2</v>
+      </c>
+      <c r="O19" s="11">
+        <v>10</v>
+      </c>
+      <c r="P19" s="12">
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="29"/>
+      <c r="B20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0</v>
+      </c>
+      <c r="D20" s="11">
+        <v>93.3</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20" s="11">
+        <v>93.2</v>
+      </c>
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11">
+        <v>94.8</v>
+      </c>
+      <c r="I20" s="11">
+        <v>1</v>
+      </c>
+      <c r="J20" s="11">
+        <v>94.8</v>
+      </c>
+      <c r="K20" s="11">
+        <v>4</v>
+      </c>
+      <c r="L20" s="11">
+        <v>92.1</v>
+      </c>
+      <c r="M20" s="11">
+        <v>11</v>
+      </c>
+      <c r="N20" s="11">
+        <v>91.6</v>
+      </c>
+      <c r="O20" s="11">
+        <v>14</v>
+      </c>
+      <c r="P20" s="12">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="29"/>
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0</v>
+      </c>
+      <c r="D21" s="11">
+        <v>94</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
+        <v>94.7</v>
+      </c>
+      <c r="G21" s="11">
+        <v>4</v>
+      </c>
+      <c r="H21" s="11">
+        <v>97.3</v>
+      </c>
+      <c r="I21" s="11">
+        <v>8</v>
+      </c>
+      <c r="J21" s="11">
+        <v>95.1</v>
+      </c>
+      <c r="K21" s="11">
+        <v>1</v>
+      </c>
+      <c r="L21" s="11">
+        <v>94.9</v>
+      </c>
+      <c r="M21" s="11">
+        <v>2</v>
+      </c>
+      <c r="N21" s="11">
+        <v>95.1</v>
+      </c>
+      <c r="O21" s="11">
+        <v>1</v>
+      </c>
+      <c r="P21" s="12">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="29"/>
+      <c r="B22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="10">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11">
+        <v>92.1</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22" s="11">
+        <v>92.3</v>
+      </c>
+      <c r="G22" s="11">
+        <v>2</v>
+      </c>
+      <c r="H22" s="11">
+        <v>93.5</v>
+      </c>
+      <c r="I22" s="11">
+        <v>1</v>
+      </c>
+      <c r="J22" s="11">
+        <v>94.3</v>
+      </c>
+      <c r="K22" s="11">
+        <v>9</v>
+      </c>
+      <c r="L22" s="11">
+        <v>85.6</v>
+      </c>
+      <c r="M22" s="11">
+        <v>12</v>
+      </c>
+      <c r="N22" s="11">
+        <v>90.5</v>
+      </c>
+      <c r="O22" s="11">
+        <v>14</v>
+      </c>
+      <c r="P22" s="12">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="29"/>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11">
+        <v>91.6</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11">
+        <v>91.6</v>
+      </c>
+      <c r="G23" s="11">
+        <v>3</v>
+      </c>
+      <c r="H23" s="11">
+        <v>93.5</v>
+      </c>
+      <c r="I23" s="11">
+        <v>1</v>
+      </c>
+      <c r="J23" s="11">
+        <v>94.8</v>
+      </c>
+      <c r="K23" s="11">
+        <v>14</v>
+      </c>
+      <c r="L23" s="11">
+        <v>80.7</v>
+      </c>
+      <c r="M23" s="11">
+        <v>18</v>
+      </c>
+      <c r="N23" s="11">
+        <v>89.1</v>
+      </c>
+      <c r="O23" s="11">
+        <v>19</v>
+      </c>
+      <c r="P23" s="12">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="30"/>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="13">
+        <v>0</v>
+      </c>
+      <c r="D24" s="14">
+        <v>93.6</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14">
+        <v>94.1</v>
+      </c>
+      <c r="G24" s="14">
+        <v>1</v>
+      </c>
+      <c r="H24" s="14">
+        <v>96.9</v>
+      </c>
+      <c r="I24" s="14">
+        <v>1</v>
+      </c>
+      <c r="J24" s="14">
+        <v>95.5</v>
+      </c>
+      <c r="K24" s="14">
+        <v>0</v>
+      </c>
+      <c r="L24" s="14">
+        <v>94</v>
+      </c>
+      <c r="M24" s="14">
+        <v>0</v>
+      </c>
+      <c r="N24" s="14">
+        <v>94.3</v>
+      </c>
+      <c r="O24" s="14">
+        <v>0</v>
+      </c>
+      <c r="P24" s="15">
+        <v>95.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="16">
+        <v>26</v>
+      </c>
+      <c r="D25" s="17">
+        <v>1.6</v>
+      </c>
+      <c r="E25" s="17">
+        <v>17</v>
+      </c>
+      <c r="F25" s="17">
+        <v>24.5</v>
+      </c>
+      <c r="G25" s="17">
+        <v>16</v>
+      </c>
+      <c r="H25" s="17">
+        <v>76</v>
+      </c>
+      <c r="I25" s="17">
+        <v>7</v>
+      </c>
+      <c r="J25" s="17">
+        <v>88.5</v>
+      </c>
+      <c r="K25" s="17">
+        <v>27</v>
+      </c>
+      <c r="L25" s="17">
+        <v>70.5</v>
+      </c>
+      <c r="M25" s="17">
+        <v>35</v>
+      </c>
+      <c r="N25" s="17">
+        <v>85.1</v>
+      </c>
+      <c r="O25" s="17">
+        <v>27</v>
+      </c>
+      <c r="P25" s="18">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="29"/>
+      <c r="B26" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+    </row>
+    <row r="27" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="29"/>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3</v>
+      </c>
+      <c r="D27" s="8">
+        <v>76.7</v>
+      </c>
+      <c r="E27" s="8">
+        <v>2</v>
+      </c>
+      <c r="F27" s="8">
+        <v>75.3</v>
+      </c>
+      <c r="G27" s="8">
+        <v>26</v>
+      </c>
+      <c r="H27" s="8">
+        <v>15.3</v>
+      </c>
+      <c r="I27" s="8">
+        <v>28</v>
+      </c>
+      <c r="J27" s="8">
+        <v>10.4</v>
+      </c>
+      <c r="K27" s="8">
+        <v>26</v>
+      </c>
+      <c r="L27" s="8">
+        <v>33.5</v>
+      </c>
+      <c r="M27" s="8">
+        <v>25</v>
+      </c>
+      <c r="N27" s="8">
+        <v>65.2</v>
+      </c>
+      <c r="O27" s="8">
+        <v>31</v>
+      </c>
+      <c r="P27" s="9">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="29"/>
+      <c r="B28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="10">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11">
+        <v>94.7</v>
+      </c>
+      <c r="E28" s="11">
+        <v>1</v>
+      </c>
+      <c r="F28" s="11">
+        <v>92</v>
+      </c>
+      <c r="G28" s="11">
+        <v>6</v>
+      </c>
+      <c r="H28" s="11">
+        <v>88.4</v>
+      </c>
+      <c r="I28" s="11">
+        <v>5</v>
+      </c>
+      <c r="J28" s="11">
+        <v>88.5</v>
+      </c>
+      <c r="K28" s="11">
+        <v>8</v>
+      </c>
+      <c r="L28" s="11">
+        <v>89.1</v>
+      </c>
+      <c r="M28" s="11">
+        <v>10</v>
+      </c>
+      <c r="N28" s="11">
+        <v>94.1</v>
+      </c>
+      <c r="O28" s="11">
+        <v>15</v>
+      </c>
+      <c r="P28" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="29"/>
+      <c r="B29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0</v>
+      </c>
+      <c r="D29" s="11">
+        <v>94</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11">
+        <v>92.4</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0</v>
+      </c>
+      <c r="H29" s="11">
+        <v>94.7</v>
+      </c>
+      <c r="I29" s="11">
+        <v>1</v>
+      </c>
+      <c r="J29" s="11">
+        <v>92.3</v>
+      </c>
+      <c r="K29" s="11">
+        <v>1</v>
+      </c>
+      <c r="L29" s="11">
+        <v>93.5</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0</v>
+      </c>
+      <c r="N29" s="11">
+        <v>95.5</v>
+      </c>
+      <c r="O29" s="11">
+        <v>4</v>
+      </c>
+      <c r="P29" s="12">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="29"/>
+      <c r="B30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0</v>
+      </c>
+      <c r="D30" s="11">
+        <v>97.2</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11">
+        <v>96</v>
+      </c>
+      <c r="G30" s="11">
+        <v>17</v>
+      </c>
+      <c r="H30" s="11">
+        <v>92.1</v>
+      </c>
+      <c r="I30" s="11">
+        <v>28</v>
+      </c>
+      <c r="J30" s="11">
+        <v>83.9</v>
+      </c>
+      <c r="K30" s="11">
+        <v>1</v>
+      </c>
+      <c r="L30" s="11">
+        <v>97.1</v>
+      </c>
+      <c r="M30" s="11">
+        <v>1</v>
+      </c>
+      <c r="N30" s="11">
+        <v>98</v>
+      </c>
+      <c r="O30" s="11">
+        <v>2</v>
+      </c>
+      <c r="P30" s="12">
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="29"/>
+      <c r="B31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="10">
+        <v>1</v>
+      </c>
+      <c r="D31" s="11">
+        <v>93.3</v>
+      </c>
+      <c r="E31" s="11">
+        <v>2</v>
+      </c>
+      <c r="F31" s="11">
+        <v>89.9</v>
+      </c>
+      <c r="G31" s="11">
+        <v>2</v>
+      </c>
+      <c r="H31" s="11">
+        <v>94.8</v>
+      </c>
+      <c r="I31" s="11">
+        <v>1</v>
+      </c>
+      <c r="J31" s="11">
+        <v>93.7</v>
+      </c>
+      <c r="K31" s="11">
+        <v>11</v>
+      </c>
+      <c r="L31" s="11">
+        <v>86.1</v>
+      </c>
+      <c r="M31" s="11">
+        <v>21</v>
+      </c>
+      <c r="N31" s="11">
+        <v>90.3</v>
+      </c>
+      <c r="O31" s="11">
+        <v>29</v>
+      </c>
+      <c r="P31" s="12">
+        <v>83.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="29"/>
+      <c r="B32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0</v>
+      </c>
+      <c r="D32" s="11">
+        <v>95.6</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>94.3</v>
+      </c>
+      <c r="G32" s="11">
+        <v>5</v>
+      </c>
+      <c r="H32" s="11">
+        <v>97.3</v>
+      </c>
+      <c r="I32" s="11">
+        <v>8</v>
+      </c>
+      <c r="J32" s="11">
+        <v>95.7</v>
+      </c>
+      <c r="K32" s="11">
+        <v>1</v>
+      </c>
+      <c r="L32" s="11">
+        <v>96.7</v>
+      </c>
+      <c r="M32" s="11">
+        <v>1</v>
+      </c>
+      <c r="N32" s="11">
+        <v>96.5</v>
+      </c>
+      <c r="O32" s="11">
+        <v>2</v>
+      </c>
+      <c r="P32" s="12">
+        <v>96.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="29"/>
+      <c r="B33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="10">
+        <v>2</v>
+      </c>
+      <c r="D33" s="11">
+        <v>89.6</v>
+      </c>
+      <c r="E33" s="11">
+        <v>2</v>
+      </c>
+      <c r="F33" s="11">
+        <v>89.1</v>
+      </c>
+      <c r="G33" s="11">
+        <v>5</v>
+      </c>
+      <c r="H33" s="11">
+        <v>86.9</v>
+      </c>
+      <c r="I33" s="11">
+        <v>2</v>
+      </c>
+      <c r="J33" s="11">
+        <v>89.3</v>
+      </c>
+      <c r="K33" s="11">
+        <v>18</v>
+      </c>
+      <c r="L33" s="11">
+        <v>72.3</v>
+      </c>
+      <c r="M33" s="11">
+        <v>22</v>
+      </c>
+      <c r="N33" s="11">
+        <v>88.5</v>
+      </c>
+      <c r="O33" s="11">
+        <v>26</v>
+      </c>
+      <c r="P33" s="12">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="29"/>
+      <c r="B34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="10">
+        <v>3</v>
+      </c>
+      <c r="D34" s="11">
+        <v>85.2</v>
+      </c>
+      <c r="E34" s="11">
+        <v>3</v>
+      </c>
+      <c r="F34" s="11">
+        <v>85.9</v>
+      </c>
+      <c r="G34" s="11">
+        <v>6</v>
+      </c>
+      <c r="H34" s="11">
+        <v>85.2</v>
+      </c>
+      <c r="I34" s="11">
+        <v>3</v>
+      </c>
+      <c r="J34" s="11">
+        <v>89.9</v>
+      </c>
+      <c r="K34" s="11">
+        <v>29</v>
+      </c>
+      <c r="L34" s="11">
+        <v>48</v>
+      </c>
+      <c r="M34" s="11">
+        <v>34</v>
+      </c>
+      <c r="N34" s="11">
+        <v>79.7</v>
+      </c>
+      <c r="O34" s="11">
+        <v>39</v>
+      </c>
+      <c r="P34" s="12">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="29"/>
+      <c r="B35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="13">
+        <v>0</v>
+      </c>
+      <c r="D35" s="14">
+        <v>95.6</v>
+      </c>
+      <c r="E35" s="14">
+        <v>0</v>
+      </c>
+      <c r="F35" s="14">
+        <v>94</v>
+      </c>
+      <c r="G35" s="14">
+        <v>3</v>
+      </c>
+      <c r="H35" s="14">
+        <v>95.9</v>
+      </c>
+      <c r="I35" s="14">
+        <v>4</v>
+      </c>
+      <c r="J35" s="14">
+        <v>95.9</v>
+      </c>
+      <c r="K35" s="14">
+        <v>0</v>
+      </c>
+      <c r="L35" s="14">
+        <v>94.8</v>
+      </c>
+      <c r="M35" s="14">
+        <v>1</v>
+      </c>
+      <c r="N35" s="14">
+        <v>96.3</v>
+      </c>
+      <c r="O35" s="14">
+        <v>1</v>
+      </c>
+      <c r="P35" s="15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="29"/>
+      <c r="B36" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+    </row>
+    <row r="37" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="29"/>
+      <c r="B37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="7">
+        <v>5</v>
+      </c>
+      <c r="D37" s="8">
+        <v>46.3</v>
+      </c>
+      <c r="E37" s="8">
+        <v>4</v>
+      </c>
+      <c r="F37" s="8">
+        <v>62.1</v>
+      </c>
+      <c r="G37" s="8">
+        <v>33</v>
+      </c>
+      <c r="H37" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="I37" s="8">
+        <v>31</v>
+      </c>
+      <c r="J37" s="8">
+        <v>6</v>
+      </c>
+      <c r="K37" s="8">
+        <v>45</v>
+      </c>
+      <c r="L37" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M37" s="8">
+        <v>48</v>
+      </c>
+      <c r="N37" s="8">
+        <v>22.1</v>
+      </c>
+      <c r="O37" s="8">
+        <v>48</v>
+      </c>
+      <c r="P37" s="9">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="29"/>
+      <c r="B38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="10">
+        <v>2</v>
+      </c>
+      <c r="D38" s="11">
+        <v>88.3</v>
+      </c>
+      <c r="E38" s="11">
+        <v>2</v>
+      </c>
+      <c r="F38" s="11">
+        <v>84.9</v>
+      </c>
+      <c r="G38" s="11">
+        <v>16</v>
+      </c>
+      <c r="H38" s="11">
+        <v>56.5</v>
+      </c>
+      <c r="I38" s="11">
+        <v>17</v>
+      </c>
+      <c r="J38" s="11">
+        <v>53.7</v>
+      </c>
+      <c r="K38" s="11">
+        <v>17</v>
+      </c>
+      <c r="L38" s="11">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="M38" s="11">
+        <v>27</v>
+      </c>
+      <c r="N38" s="11">
+        <v>74.8</v>
+      </c>
+      <c r="O38" s="11">
+        <v>30</v>
+      </c>
+      <c r="P38" s="12">
+        <v>67.900000000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="29"/>
+      <c r="B39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="10">
+        <v>1</v>
+      </c>
+      <c r="D39" s="11">
+        <v>94</v>
+      </c>
+      <c r="E39" s="11">
+        <v>1</v>
+      </c>
+      <c r="F39" s="11">
+        <v>90.5</v>
+      </c>
+      <c r="G39" s="11">
+        <v>4</v>
+      </c>
+      <c r="H39" s="11">
+        <v>88.8</v>
+      </c>
+      <c r="I39" s="11">
+        <v>3</v>
+      </c>
+      <c r="J39" s="11">
+        <v>88.4</v>
+      </c>
+      <c r="K39" s="11">
+        <v>6</v>
+      </c>
+      <c r="L39" s="11">
+        <v>89.7</v>
+      </c>
+      <c r="M39" s="11">
+        <v>12</v>
+      </c>
+      <c r="N39" s="11">
+        <v>88.5</v>
+      </c>
+      <c r="O39" s="11">
+        <v>14</v>
+      </c>
+      <c r="P39" s="12">
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="29"/>
+      <c r="B40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="10">
+        <v>4</v>
+      </c>
+      <c r="D40" s="11">
+        <v>74.5</v>
+      </c>
+      <c r="E40" s="11">
+        <v>2</v>
+      </c>
+      <c r="F40" s="11">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="G40" s="11">
+        <v>59</v>
+      </c>
+      <c r="H40" s="11">
+        <v>61.1</v>
+      </c>
+      <c r="I40" s="11">
+        <v>58</v>
+      </c>
+      <c r="J40" s="11">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="K40" s="11">
+        <v>32</v>
+      </c>
+      <c r="L40" s="11">
+        <v>36.9</v>
+      </c>
+      <c r="M40" s="11">
+        <v>31</v>
+      </c>
+      <c r="N40" s="11">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="O40" s="11">
+        <v>31</v>
+      </c>
+      <c r="P40" s="12">
+        <v>71.099999999999994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="29"/>
+      <c r="B41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="10">
+        <v>2</v>
+      </c>
+      <c r="D41" s="11">
+        <v>92</v>
+      </c>
+      <c r="E41" s="11">
+        <v>3</v>
+      </c>
+      <c r="F41" s="11">
+        <v>84.8</v>
+      </c>
+      <c r="G41" s="11">
+        <v>3</v>
+      </c>
+      <c r="H41" s="11">
+        <v>92.9</v>
+      </c>
+      <c r="I41" s="11">
+        <v>1</v>
+      </c>
+      <c r="J41" s="11">
+        <v>93.1</v>
+      </c>
+      <c r="K41" s="11">
+        <v>16</v>
+      </c>
+      <c r="L41" s="11">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="M41" s="11">
+        <v>34</v>
+      </c>
+      <c r="N41" s="11">
+        <v>76.8</v>
+      </c>
+      <c r="O41" s="11">
+        <v>41</v>
+      </c>
+      <c r="P41" s="12">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="29"/>
+      <c r="B42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="10">
+        <v>2</v>
+      </c>
+      <c r="D42" s="11">
+        <v>95.6</v>
+      </c>
+      <c r="E42" s="11">
+        <v>1</v>
+      </c>
+      <c r="F42" s="11">
+        <v>96.4</v>
+      </c>
+      <c r="G42" s="11">
+        <v>22</v>
+      </c>
+      <c r="H42" s="11">
+        <v>90</v>
+      </c>
+      <c r="I42" s="11">
+        <v>37</v>
+      </c>
+      <c r="J42" s="11">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="K42" s="11">
+        <v>2</v>
+      </c>
+      <c r="L42" s="11">
+        <v>97.9</v>
+      </c>
+      <c r="M42" s="11">
+        <v>7</v>
+      </c>
+      <c r="N42" s="11">
+        <v>97.3</v>
+      </c>
+      <c r="O42" s="11">
+        <v>1</v>
+      </c>
+      <c r="P42" s="12">
+        <v>98.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="29"/>
+      <c r="B43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="10">
+        <v>3</v>
+      </c>
+      <c r="D43" s="11">
+        <v>85.6</v>
+      </c>
+      <c r="E43" s="11">
+        <v>3</v>
+      </c>
+      <c r="F43" s="11">
+        <v>84</v>
+      </c>
+      <c r="G43" s="11">
+        <v>5</v>
+      </c>
+      <c r="H43" s="11">
+        <v>85.6</v>
+      </c>
+      <c r="I43" s="11">
+        <v>2</v>
+      </c>
+      <c r="J43" s="11">
+        <v>89.9</v>
+      </c>
+      <c r="K43" s="11">
+        <v>23</v>
+      </c>
+      <c r="L43" s="11">
+        <v>60.5</v>
+      </c>
+      <c r="M43" s="11">
+        <v>34</v>
+      </c>
+      <c r="N43" s="11">
+        <v>75.7</v>
+      </c>
+      <c r="O43" s="11">
+        <v>37</v>
+      </c>
+      <c r="P43" s="12">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="29"/>
+      <c r="B44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="10">
+        <v>4</v>
+      </c>
+      <c r="D44" s="11">
+        <v>77.3</v>
+      </c>
+      <c r="E44" s="11">
+        <v>4</v>
+      </c>
+      <c r="F44" s="11">
+        <v>78.7</v>
+      </c>
+      <c r="G44" s="11">
+        <v>7</v>
+      </c>
+      <c r="H44" s="11">
+        <v>84.4</v>
+      </c>
+      <c r="I44" s="11">
+        <v>2</v>
+      </c>
+      <c r="J44" s="11">
+        <v>90.5</v>
+      </c>
+      <c r="K44" s="11">
+        <v>37</v>
+      </c>
+      <c r="L44" s="11">
+        <v>30</v>
+      </c>
+      <c r="M44" s="11">
+        <v>45</v>
+      </c>
+      <c r="N44" s="11">
+        <v>63.9</v>
+      </c>
+      <c r="O44" s="11">
+        <v>48</v>
+      </c>
+      <c r="P44" s="12">
+        <v>64.099999999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="30"/>
+      <c r="B45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="13">
+        <v>0</v>
+      </c>
+      <c r="D45" s="14">
+        <v>95.3</v>
+      </c>
+      <c r="E45" s="14">
+        <v>0</v>
+      </c>
+      <c r="F45" s="14">
+        <v>95.9</v>
+      </c>
+      <c r="G45" s="14">
+        <v>3</v>
+      </c>
+      <c r="H45" s="14">
+        <v>95.3</v>
+      </c>
+      <c r="I45" s="14">
+        <v>5</v>
+      </c>
+      <c r="J45" s="14">
+        <v>95.9</v>
+      </c>
+      <c r="K45" s="14">
+        <v>0</v>
+      </c>
+      <c r="L45" s="14">
+        <v>96</v>
+      </c>
+      <c r="M45" s="14">
+        <v>0</v>
+      </c>
+      <c r="N45" s="14">
+        <v>95.6</v>
+      </c>
+      <c r="O45" s="14">
+        <v>1</v>
+      </c>
+      <c r="P45" s="15">
+        <v>96.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A4:A24"/>
+    <mergeCell ref="B5:P5"/>
+    <mergeCell ref="B15:P15"/>
+    <mergeCell ref="A25:A45"/>
+    <mergeCell ref="B26:P26"/>
+    <mergeCell ref="B36:P36"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>